--- a/ЗАВОДЫ/МИРАТОРГ/2025/06,25/23,06,25 Мираторг ЗПФ Ташкент/дв 23,06,25 тшрсч мртрг зпф от Лыгина.xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/06,25/23,06,25 Мираторг ЗПФ Ташкент/дв 23,06,25 тшрсч мртрг зпф от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\23,06,25 Мираторг ЗПФ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\06,25\23,06,25 Мираторг ЗПФ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9653A581-C032-41D0-B3DB-A022B938A49C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D5655-6BEE-4F0C-B46F-86E98A8357A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -287,6 +287,9 @@
   <si>
     <t>30,06,</t>
   </si>
+  <si>
+    <t>нет в бланке для заказа / 27,06,25 Шувалова уменьшила со 150шт. до 60шт.</t>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -429,6 +432,7 @@
     <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -738,7 +742,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +759,7 @@
     <col min="18" max="18" width="12.5703125" customWidth="1"/>
     <col min="19" max="20" width="5" customWidth="1"/>
     <col min="21" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="32.85546875" customWidth="1"/>
+    <col min="31" max="31" width="59.7109375" customWidth="1"/>
     <col min="32" max="32" width="7" customWidth="1"/>
     <col min="33" max="33" width="2.5703125" customWidth="1"/>
     <col min="34" max="51" width="8" customWidth="1"/>
@@ -1105,7 +1109,7 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
@@ -1157,7 +1161,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="4">
         <f>SUM(AF6:AF500)</f>
-        <v>167.20000000000002</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -3303,14 +3307,14 @@
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="P26" s="5">
-        <v>150</v>
+      <c r="P26" s="18">
+        <v>60</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>63.75</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="5"/>
@@ -3347,11 +3351,11 @@
         <v>0</v>
       </c>
       <c r="AE26" s="12" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="AF26" s="1">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>

--- a/ЗАВОДЫ/МИРАТОРГ/2025/06,25/23,06,25 Мираторг ЗПФ Ташкент/дв 23,06,25 тшрсч мртрг зпф от Лыгина.xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/06,25/23,06,25 Мираторг ЗПФ Ташкент/дв 23,06,25 тшрсч мртрг зпф от Лыгина.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\06,25\23,06,25 Мираторг ЗПФ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\06,25\23,06,25 Мираторг ЗПФ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D5655-6BEE-4F0C-B46F-86E98A8357A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8D303-9E48-4E88-8175-BA2B8948C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,14 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AF$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AG$42</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -289,6 +281,9 @@
   </si>
   <si>
     <t>нет в бланке для заказа / 27,06,25 Шувалова уменьшила со 150шт. до 60шт.</t>
+  </si>
+  <si>
+    <t>метка2</t>
   </si>
 </sst>
 </file>
@@ -736,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY500"/>
+  <dimension ref="A1:AZ500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH20" sqref="AH20"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,18 +749,19 @@
     <col min="7" max="7" width="5" style="9" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="0.28515625" customWidth="1"/>
-    <col min="15" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="20" width="5" customWidth="1"/>
-    <col min="21" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="59.7109375" customWidth="1"/>
-    <col min="32" max="32" width="7" customWidth="1"/>
-    <col min="33" max="33" width="2.5703125" customWidth="1"/>
-    <col min="34" max="51" width="8" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="0.28515625" customWidth="1"/>
+    <col min="16" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="21" width="5" customWidth="1"/>
+    <col min="22" max="31" width="6" customWidth="1"/>
+    <col min="32" max="32" width="59.7109375" customWidth="1"/>
+    <col min="33" max="33" width="7" customWidth="1"/>
+    <col min="34" max="34" width="2.5703125" customWidth="1"/>
+    <col min="35" max="52" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -817,8 +813,9 @@
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ1" s="1"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -870,8 +867,9 @@
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ2" s="1"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -900,40 +898,40 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>19</v>
@@ -963,12 +961,14 @@
         <v>19</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -987,8 +987,9 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="1"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1002,50 +1003,50 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -1066,8 +1067,9 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ4" s="1"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1083,17 +1085,14 @@
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5:Q5" si="0">SUM(J6:J500)</f>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:R5" si="0">SUM(K6:K500)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>326</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
@@ -1105,65 +1104,68 @@
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>65.2</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>65.2</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="4">
-        <f t="shared" ref="U5:AD5" si="1">SUM(U6:U500)</f>
+      <c r="U5" s="1"/>
+      <c r="V5" s="4">
+        <f t="shared" ref="V5:AE5" si="1">SUM(V6:V500)</f>
         <v>69.8</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="1"/>
         <v>224.6</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="1"/>
         <v>112.39999999999998</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <f t="shared" si="1"/>
         <v>61.200000000000017</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <f t="shared" si="1"/>
         <v>209.60000000000002</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="4">
         <f t="shared" si="1"/>
         <v>47.000000000000014</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <f t="shared" si="1"/>
         <v>63.6</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <f t="shared" si="1"/>
         <v>151.80000000000004</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <f t="shared" si="1"/>
         <v>227.8</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="4">
-        <f>SUM(AF6:AF500)</f>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="4">
+        <f>SUM(AG6:AG500)</f>
         <v>149.19999999999999</v>
       </c>
-      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -1182,8 +1184,9 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="1"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1208,66 +1211,66 @@
         <v>1010011725</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6:K42" si="2">E6-J6</f>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L42" si="2">E6-K6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
         <f>E6/5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="e">
-        <f>(F6+P6)/O6</f>
+      <c r="R6" s="5"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="e">
+        <f>(F6+Q6)/P6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T6" s="1" t="e">
-        <f>F6/O6</f>
+      <c r="U6" s="1" t="e">
+        <f>F6/P6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>0.4</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>0</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>0.2</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>2</v>
       </c>
       <c r="Z6" s="1">
         <v>2</v>
       </c>
       <c r="AA6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
         <v>0.4</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE6" s="17" t="s">
+      <c r="AF6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF6" s="1">
-        <f>G6*P6</f>
+      <c r="AG6" s="1">
+        <f>G6*Q6</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -1286,8 +1289,9 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="1"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -1314,36 +1318,34 @@
         <v>38</v>
       </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="14">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="14">
-        <f t="shared" ref="O7:O42" si="3">E7/5</f>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14">
+        <f t="shared" ref="P7:P42" si="3">E7/5</f>
         <v>0.4</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14">
-        <f t="shared" ref="S7:S42" si="4">(F7+P7)/O7</f>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14">
+        <f t="shared" ref="T7:T42" si="4">(F7+Q7)/P7</f>
         <v>127.5</v>
       </c>
-      <c r="T7" s="14">
-        <f t="shared" ref="T7:T42" si="5">F7/O7</f>
+      <c r="U7" s="14">
+        <f t="shared" ref="U7:U42" si="5">F7/P7</f>
         <v>127.5</v>
       </c>
-      <c r="U7" s="14">
+      <c r="V7" s="14">
         <v>0</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W7" s="14">
         <v>1.2</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0</v>
       </c>
       <c r="X7" s="14">
         <v>0</v>
@@ -1364,13 +1366,15 @@
         <v>0</v>
       </c>
       <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
         <v>3.6</v>
       </c>
-      <c r="AE7" s="17" t="s">
+      <c r="AF7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="1"/>
+      <c r="AG7" s="14"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -1389,8 +1393,9 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ7" s="1"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1419,64 +1424,64 @@
         <v>1010004270</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1">
+      <c r="R8" s="5"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1">
         <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>16.2</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>2.8</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>4</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>0</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>0.8</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <v>15</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1">
-        <f>G8*P8</f>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1">
+        <f>G8*Q8</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
@@ -1495,8 +1500,9 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="1"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1523,64 +1529,64 @@
         <v>1010004227</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1">
+      <c r="R9" s="5"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
       <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>1.2</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>2.6</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>3</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>0.6</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>1</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>2.8</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>4.2</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1">
-        <f>G9*P9</f>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1">
+        <f>G9*Q9</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -1599,8 +1605,9 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="1"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1629,64 +1636,64 @@
         <v>1010011730</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1">
+      <c r="R10" s="5"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1">
         <f t="shared" si="4"/>
         <v>188.75</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <f t="shared" si="5"/>
         <v>188.75</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>1.8</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>13.8</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>3.4</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>1.6</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>3.6</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>2</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>1.4</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="1">
         <v>3.4</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AE10" s="1">
         <v>14.6</v>
       </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1">
-        <f>G10*P10</f>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1">
+        <f>G10*Q10</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
@@ -1705,8 +1712,9 @@
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="1"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1733,66 +1741,66 @@
         <v>1010011735</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1">
+      <c r="R11" s="5"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>3.2</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>3.4</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>5.2</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>2</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>3</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>2.6</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AE11" s="1">
         <v>16.2</v>
       </c>
-      <c r="AE11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AF11" s="1">
-        <f>G11*P11</f>
+      <c r="AG11" s="1">
+        <f>G11*Q11</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -1811,8 +1819,9 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="1"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -1835,39 +1844,37 @@
         <v>38</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="14">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="14">
+      <c r="O12" s="14"/>
+      <c r="P12" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14" t="e">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="14" t="e">
+      <c r="U12" s="14" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
       <c r="V12" s="14">
         <v>0</v>
       </c>
       <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
         <v>1.2</v>
-      </c>
-      <c r="X12" s="14">
-        <v>0</v>
       </c>
       <c r="Y12" s="14">
         <v>0</v>
@@ -1885,11 +1892,13 @@
         <v>0</v>
       </c>
       <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14">
         <v>2</v>
       </c>
-      <c r="AE12" s="14"/>
       <c r="AF12" s="14"/>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="14"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -1908,8 +1917,9 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="1"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1936,64 +1946,64 @@
         <v>1010027797</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="e">
+      <c r="R13" s="5"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="1" t="e">
+      <c r="U13" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>0.8</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>5.2</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>0.8</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>5.2</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>1.8</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>2</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
       </c>
       <c r="AC13" s="1">
         <v>0</v>
       </c>
       <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <v>5.8</v>
       </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1">
-        <f t="shared" ref="AF13:AF35" si="6">G13*P13</f>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1">
+        <f t="shared" ref="AG13:AG35" si="6">G13*Q13</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -2012,8 +2022,9 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ13" s="1"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2040,66 +2051,66 @@
         <v>1010004229</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1">
+      <c r="R14" s="5"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
         <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>1.8</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>3.4</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>2</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>1</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>1.8</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0.4</v>
       </c>
       <c r="AB14" s="1">
         <v>0.4</v>
       </c>
       <c r="AC14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AD14" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <v>3.2</v>
       </c>
-      <c r="AE14" s="12" t="s">
+      <c r="AF14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -2118,8 +2129,9 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="1"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2146,64 +2158,64 @@
         <v>1010011737</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1">
+      <c r="R15" s="5"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="5"/>
         <v>295</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>0</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>13.4</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>1.6</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>7.6</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>3.2</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>1.2</v>
       </c>
       <c r="AB15" s="1">
         <v>1.2</v>
       </c>
       <c r="AC15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AD15" s="1">
         <v>3.4</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <v>15.2</v>
       </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1">
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -2222,8 +2234,9 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="1"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2250,66 +2263,66 @@
         <v>1010024886</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1">
+      <c r="R16" s="5"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
         <f t="shared" si="4"/>
         <v>77.5</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <f t="shared" si="5"/>
         <v>77.5</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>1.4</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>3</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>1.4</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>1</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>3</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>0.8</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD16" s="1">
         <v>2.4</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE16" s="17" t="s">
+      <c r="AF16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AG16" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -2328,8 +2341,9 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="1"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>50</v>
       </c>
@@ -2350,31 +2364,29 @@
         <v>1010027987</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="e">
+      <c r="R17" s="5"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="1" t="e">
+      <c r="U17" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
       <c r="V17" s="1">
         <v>0</v>
       </c>
@@ -2400,16 +2412,18 @@
         <v>0</v>
       </c>
       <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
         <v>24</v>
       </c>
-      <c r="AE17" s="11" t="s">
+      <c r="AF17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -2428,8 +2442,9 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="1"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>52</v>
       </c>
@@ -2450,31 +2465,29 @@
         <v>1010003864</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="e">
+      <c r="R18" s="5"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T18" s="1" t="e">
+      <c r="U18" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
@@ -2488,28 +2501,30 @@
         <v>0</v>
       </c>
       <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>0.6</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AC18" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AE18" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AF18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AG18" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -2528,8 +2543,9 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ18" s="1"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -2558,66 +2574,66 @@
         <v>1010003817</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
         <f t="shared" si="3"/>
         <v>15.6</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>300</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1">
+      <c r="R19" s="5"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
         <f t="shared" si="4"/>
         <v>29.615384615384617</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <f t="shared" si="5"/>
         <v>10.384615384615385</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>25.2</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>38</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>22.2</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>8</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>44.8</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>22.2</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>13.8</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>46</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AE19" s="1">
         <v>7.2</v>
       </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1">
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -2636,8 +2652,9 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ19" s="1"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>55</v>
       </c>
@@ -2658,31 +2675,29 @@
         <v>1010027984</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="e">
+      <c r="R20" s="5"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="1" t="e">
+      <c r="U20" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
       <c r="V20" s="1">
         <v>0</v>
       </c>
@@ -2708,16 +2723,18 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
         <v>26.4</v>
       </c>
-      <c r="AE20" s="11" t="s">
+      <c r="AF20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AG20" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -2736,8 +2753,9 @@
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ20" s="1"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2764,64 +2782,64 @@
         <v>1010003874</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
         <f t="shared" si="3"/>
         <v>6.8</v>
       </c>
-      <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1">
+      <c r="R21" s="5"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
         <f t="shared" si="4"/>
         <v>50.882352941176471</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <f t="shared" si="5"/>
         <v>50.882352941176471</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>2.8</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>32.4</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>17</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>14.2</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>28</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>19.2</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>7.6</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>13</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>46.4</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>7.2</v>
       </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1">
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -2840,8 +2858,9 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ21" s="1"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -2868,70 +2887,70 @@
         <v>1010027778</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
         <f t="shared" si="3"/>
         <v>5.8</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>40</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="5">
         <v>13</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1">
         <f t="shared" si="4"/>
         <v>14.655172413793103</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <f t="shared" si="5"/>
         <v>7.7586206896551726</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>3.6</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>5.8</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>6.2</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>0</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>12.4</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>6.6</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>0.6</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>5.4</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>0.2</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>11.4</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AG22" s="1">
         <f t="shared" si="6"/>
         <v>10.8</v>
       </c>
-      <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -2950,8 +2969,9 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ22" s="1"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -2978,64 +2998,64 @@
         <v>1010021023</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
         <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
-      <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1">
+      <c r="R23" s="5"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1">
         <f t="shared" si="4"/>
         <v>18.80952380952381</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <f t="shared" si="5"/>
         <v>18.80952380952381</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>-0.2</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>27.4</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>7</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>5.6</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>13</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>19.8</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
       </c>
       <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
         <v>17.8</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AE23" s="1">
         <v>7.4</v>
       </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1">
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -3054,8 +3074,9 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ23" s="1"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -3082,66 +3103,66 @@
         <v>10010027943</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
         <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
-      <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1">
+      <c r="R24" s="5"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1">
         <f t="shared" si="4"/>
         <v>49.864864864864863</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <f t="shared" si="5"/>
         <v>49.864864864864863</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>3.2</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>4</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>8.4</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>5</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>2.6</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>9.4</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>2</v>
       </c>
       <c r="AB24" s="1">
         <v>2</v>
       </c>
       <c r="AC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="1">
         <v>5.4</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AE24" s="1">
         <v>7.8</v>
       </c>
-      <c r="AE24" s="17" t="s">
+      <c r="AF24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AG24" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -3160,8 +3181,9 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ24" s="1"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -3188,66 +3210,66 @@
         <v>1010011268</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1">
+      <c r="R25" s="5"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1">
         <f t="shared" si="4"/>
         <v>127.5</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <f t="shared" si="5"/>
         <v>127.5</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>2.8</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>3</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>2.8</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>1</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>1.8</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>1</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>1.2</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>1.4</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AE25" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE25" s="17" t="s">
+      <c r="AF25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AG25" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -3266,8 +3288,9 @@
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ25" s="1"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -3295,54 +3318,52 @@
       <c r="I26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1">
+      <c r="J26" s="12"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="P26" s="18">
+      <c r="Q26" s="18">
         <v>60</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1">
+      <c r="R26" s="5"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1">
         <f t="shared" si="4"/>
         <v>63.75</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <f t="shared" si="5"/>
         <v>26.25</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>6</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>0</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <v>5.2</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>5.2</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>3.2</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
       </c>
       <c r="AC26" s="1">
         <v>0</v>
@@ -3350,14 +3371,16 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-      <c r="AE26" s="12" t="s">
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AG26" s="1">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -3376,8 +3399,9 @@
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ26" s="1"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>65</v>
       </c>
@@ -3398,53 +3422,51 @@
         <v>1010021343</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>20</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="e">
+      <c r="R27" s="5"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="1" t="e">
+      <c r="U27" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
       <c r="V27" s="1">
         <v>0</v>
       </c>
       <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
         <v>0.8</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>7.2</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AA27" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>0.2</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
       </c>
       <c r="AC27" s="1">
         <v>0</v>
@@ -3452,12 +3474,14 @@
       <c r="AD27" s="1">
         <v>0</v>
       </c>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="1">
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="1">
         <f t="shared" si="6"/>
         <v>6.4</v>
       </c>
-      <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -3476,8 +3500,9 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ27" s="1"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -3503,52 +3528,50 @@
       <c r="I28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1">
+      <c r="J28" s="12"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1">
+      <c r="R28" s="5"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1">
         <f t="shared" si="4"/>
         <v>24.166666666666668</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <f t="shared" si="5"/>
         <v>24.166666666666668</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>0.4</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0</v>
       </c>
       <c r="W28" s="1">
         <v>0</v>
       </c>
       <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
         <v>3.2</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>5.8</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>3.2</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
       </c>
       <c r="AC28" s="1">
         <v>0</v>
@@ -3556,14 +3579,16 @@
       <c r="AD28" s="1">
         <v>0</v>
       </c>
-      <c r="AE28" s="13" t="s">
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AG28" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -3582,8 +3607,9 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ28" s="1"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -3608,66 +3634,66 @@
         <v>1010021314</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1" t="e">
+      <c r="R29" s="5"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="1" t="e">
+      <c r="U29" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <v>4.2</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
       </c>
       <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
         <v>3.2</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Z29" s="1">
         <v>6.8</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AA29" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>0.8</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>2.4</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AD29" s="1">
         <v>1</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AE29" s="1">
         <v>0</v>
       </c>
-      <c r="AE29" s="17" t="s">
+      <c r="AF29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AG29" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -3686,8 +3712,9 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ29" s="1"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -3714,68 +3741,68 @@
         <v>1010020292</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q30" s="5">
         <v>30</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="R30" s="5">
         <v>8</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1">
         <f t="shared" si="4"/>
         <v>28.333333333333336</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <f t="shared" si="5"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <v>3.2</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>1.2</v>
       </c>
-      <c r="W30" s="1">
+      <c r="X30" s="1">
         <v>3.2</v>
       </c>
-      <c r="X30" s="1">
+      <c r="Y30" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Z30" s="1">
         <v>0</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="AA30" s="1">
         <v>4.2</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
       </c>
       <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
         <v>1</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AE30" s="1">
         <v>0</v>
       </c>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1">
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -3794,8 +3821,9 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ30" s="1"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -3824,66 +3852,66 @@
         <v>1010025555</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1">
+      <c r="O31" s="1"/>
+      <c r="P31" s="1">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1">
+      <c r="R31" s="5"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1">
         <f t="shared" si="4"/>
         <v>47.916666666666671</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <f t="shared" si="5"/>
         <v>47.916666666666671</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <v>1.6</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="1">
         <v>10</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X31" s="1">
         <v>2.6</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y31" s="1">
         <v>0</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z31" s="1">
         <v>12.8</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AA31" s="1">
         <v>0.6</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>0</v>
       </c>
       <c r="AB31" s="1">
         <v>0</v>
       </c>
       <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
         <v>6.8</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AE31" s="1">
         <v>0</v>
       </c>
-      <c r="AE31" s="17" t="s">
+      <c r="AF31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AG31" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -3902,8 +3930,9 @@
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ31" s="1"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -3930,66 +3959,66 @@
         <v>1010026655</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1">
+      <c r="O32" s="1"/>
+      <c r="P32" s="1">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1">
+      <c r="R32" s="5"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>2.4</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>5.6</v>
       </c>
-      <c r="W32" s="1">
+      <c r="X32" s="1">
         <v>4.8</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Y32" s="1">
         <v>1.2</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Z32" s="1">
         <v>12</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AA32" s="1">
         <v>7.6</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AB32" s="1">
         <v>4</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AC32" s="1">
         <v>5.6</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AD32" s="1">
         <v>0</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AE32" s="1">
         <v>11.8</v>
       </c>
-      <c r="AE32" s="12" t="s">
+      <c r="AF32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AG32" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -4008,8 +4037,9 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ32" s="1"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -4036,64 +4066,64 @@
         <v>1010028228</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1">
+      <c r="R33" s="5"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1">
         <f t="shared" si="4"/>
         <v>13.333333333333332</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <f t="shared" si="5"/>
         <v>13.333333333333332</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V33" s="1">
+      <c r="W33" s="1">
         <v>2</v>
       </c>
-      <c r="W33" s="1">
+      <c r="X33" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X33" s="1">
+      <c r="Y33" s="1">
         <v>2</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Z33" s="1">
         <v>7.4</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="AA33" s="1">
         <v>6.2</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AB33" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AC33" s="1">
         <v>7</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AD33" s="1">
         <v>2</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AE33" s="1">
         <v>4</v>
       </c>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1">
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
@@ -4112,8 +4142,9 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
-    </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ33" s="1"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>72</v>
       </c>
@@ -4134,31 +4165,29 @@
         <v>10010024503</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1" t="e">
+      <c r="R34" s="5"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T34" s="1" t="e">
+      <c r="U34" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U34" s="1">
-        <v>0</v>
-      </c>
       <c r="V34" s="1">
         <v>0</v>
       </c>
@@ -4186,14 +4215,16 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-      <c r="AE34" s="11" t="s">
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AG34" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -4212,8 +4243,9 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ34" s="1"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -4240,66 +4272,66 @@
         <v>1010028186</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1">
+      <c r="O35" s="1"/>
+      <c r="P35" s="1">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1">
+      <c r="R35" s="5"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1">
         <f t="shared" si="4"/>
         <v>73.84615384615384</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U35" s="1">
         <f t="shared" si="5"/>
         <v>73.84615384615384</v>
       </c>
-      <c r="U35" s="1">
+      <c r="V35" s="1">
         <v>3.6</v>
       </c>
-      <c r="V35" s="1">
+      <c r="W35" s="1">
         <v>0</v>
       </c>
-      <c r="W35" s="1">
+      <c r="X35" s="1">
         <v>0.4</v>
       </c>
-      <c r="X35" s="1">
+      <c r="Y35" s="1">
         <v>0</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Z35" s="1">
         <v>4.8</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="AA35" s="1">
         <v>2</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AB35" s="1">
         <v>0</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AC35" s="1">
         <v>2</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>0</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
       </c>
-      <c r="AE35" s="17" t="s">
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AG35" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -4318,8 +4350,9 @@
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1"/>
-    </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ35" s="1"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>74</v>
       </c>
@@ -4342,63 +4375,63 @@
         <v>38</v>
       </c>
       <c r="J36" s="14"/>
-      <c r="K36" s="14">
+      <c r="K36" s="14"/>
+      <c r="L36" s="14">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="14">
+      <c r="O36" s="14"/>
+      <c r="P36" s="14">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14">
+      <c r="Q36" s="5"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T36" s="14">
+      <c r="U36" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U36" s="14">
+      <c r="V36" s="14">
         <v>-1</v>
       </c>
-      <c r="V36" s="14">
+      <c r="W36" s="14">
         <v>0</v>
       </c>
-      <c r="W36" s="14">
+      <c r="X36" s="14">
         <v>-1.4</v>
       </c>
-      <c r="X36" s="14">
+      <c r="Y36" s="14">
         <v>0</v>
-      </c>
-      <c r="Y36" s="14">
-        <v>-1.8</v>
       </c>
       <c r="Z36" s="14">
         <v>-1.8</v>
       </c>
       <c r="AA36" s="14">
+        <v>-1.8</v>
+      </c>
+      <c r="AB36" s="14">
         <v>0</v>
       </c>
-      <c r="AB36" s="14">
+      <c r="AC36" s="14">
         <v>-1</v>
       </c>
-      <c r="AC36" s="14">
+      <c r="AD36" s="14">
         <v>-0.6</v>
       </c>
-      <c r="AD36" s="14">
+      <c r="AE36" s="14">
         <v>0</v>
       </c>
-      <c r="AE36" s="14" t="s">
+      <c r="AF36" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="1"/>
+      <c r="AG36" s="14"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -4417,8 +4450,9 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ36" s="1"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>76</v>
       </c>
@@ -4443,63 +4477,63 @@
         <v>38</v>
       </c>
       <c r="J37" s="14"/>
-      <c r="K37" s="14">
+      <c r="K37" s="14"/>
+      <c r="L37" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
-      <c r="O37" s="14">
+      <c r="O37" s="14"/>
+      <c r="P37" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14" t="e">
+      <c r="Q37" s="5"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="14" t="e">
+      <c r="U37" s="14" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U37" s="14">
+      <c r="V37" s="14">
         <v>1.4</v>
       </c>
-      <c r="V37" s="14">
+      <c r="W37" s="14">
         <v>11.4</v>
       </c>
-      <c r="W37" s="14">
+      <c r="X37" s="14">
         <v>1</v>
       </c>
-      <c r="X37" s="14">
+      <c r="Y37" s="14">
         <v>0.2</v>
       </c>
-      <c r="Y37" s="14">
+      <c r="Z37" s="14">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Z37" s="14">
+      <c r="AA37" s="14">
         <v>4</v>
       </c>
-      <c r="AA37" s="14">
+      <c r="AB37" s="14">
         <v>2.8</v>
       </c>
-      <c r="AB37" s="14">
+      <c r="AC37" s="14">
         <v>0</v>
       </c>
-      <c r="AC37" s="14">
+      <c r="AD37" s="14">
         <v>0.8</v>
       </c>
-      <c r="AD37" s="14">
+      <c r="AE37" s="14">
         <v>11.6</v>
       </c>
-      <c r="AE37" s="17" t="s">
+      <c r="AF37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="1"/>
+      <c r="AG37" s="14"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
@@ -4518,8 +4552,9 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
-    </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ37" s="1"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>77</v>
       </c>
@@ -4546,45 +4581,43 @@
         <v>38</v>
       </c>
       <c r="J38" s="14"/>
-      <c r="K38" s="14">
+      <c r="K38" s="14"/>
+      <c r="L38" s="14">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
-      <c r="O38" s="14">
+      <c r="O38" s="14"/>
+      <c r="P38" s="14">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14">
+      <c r="Q38" s="5"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14">
         <f t="shared" si="4"/>
         <v>61.153846153846153</v>
       </c>
-      <c r="T38" s="14">
+      <c r="U38" s="14">
         <f t="shared" si="5"/>
         <v>61.153846153846153</v>
       </c>
-      <c r="U38" s="14">
-        <v>0</v>
-      </c>
       <c r="V38" s="14">
         <v>0</v>
       </c>
       <c r="W38" s="14">
+        <v>0</v>
+      </c>
+      <c r="X38" s="14">
         <v>0.8</v>
       </c>
-      <c r="X38" s="14">
+      <c r="Y38" s="14">
         <v>0</v>
       </c>
-      <c r="Y38" s="14">
+      <c r="Z38" s="14">
         <v>1.2</v>
-      </c>
-      <c r="Z38" s="14">
-        <v>0</v>
       </c>
       <c r="AA38" s="14">
         <v>0</v>
@@ -4593,16 +4626,18 @@
         <v>0</v>
       </c>
       <c r="AC38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="14">
         <v>-0.2</v>
       </c>
-      <c r="AD38" s="14">
+      <c r="AE38" s="14">
         <v>3</v>
       </c>
-      <c r="AE38" s="17" t="s">
+      <c r="AF38" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="1"/>
+      <c r="AG38" s="14"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -4621,8 +4656,9 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
-    </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ38" s="1"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -4649,48 +4685,46 @@
         <v>1010017917</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="1">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1">
+      <c r="O39" s="1"/>
+      <c r="P39" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1" t="e">
+      <c r="R39" s="5"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="1" t="e">
+      <c r="U39" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U39" s="1">
+      <c r="V39" s="1">
         <v>0</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>12.6</v>
       </c>
-      <c r="W39" s="1">
+      <c r="X39" s="1">
         <v>2.6</v>
       </c>
-      <c r="X39" s="1">
+      <c r="Y39" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Z39" s="1">
         <v>3</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="AA39" s="1">
         <v>4</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>0</v>
       </c>
       <c r="AB39" s="1">
         <v>0</v>
@@ -4699,16 +4733,18 @@
         <v>0</v>
       </c>
       <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
         <v>15</v>
       </c>
-      <c r="AE39" s="17" t="s">
+      <c r="AF39" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF39" s="1">
-        <f>G39*P39</f>
+      <c r="AG39" s="1">
+        <f>G39*Q39</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -4727,8 +4763,9 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
-    </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ39" s="1"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -4753,66 +4790,66 @@
         <v>1010004259</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="1">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1" t="e">
+      <c r="R40" s="5"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T40" s="1" t="e">
+      <c r="U40" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U40" s="1">
+      <c r="V40" s="1">
         <v>0.6</v>
       </c>
-      <c r="V40" s="1">
+      <c r="W40" s="1">
         <v>3</v>
       </c>
-      <c r="W40" s="1">
+      <c r="X40" s="1">
         <v>0.4</v>
       </c>
-      <c r="X40" s="1">
+      <c r="Y40" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Z40" s="1">
         <v>1.6</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="AA40" s="1">
         <v>2.4</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AB40" s="1">
         <v>1.6</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AC40" s="1">
         <v>1.4</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AD40" s="1">
         <v>2.4</v>
       </c>
-      <c r="AD40" s="1">
+      <c r="AE40" s="1">
         <v>2.6</v>
       </c>
-      <c r="AE40" s="17" t="s">
+      <c r="AF40" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF40" s="1">
-        <f>G40*P40</f>
+      <c r="AG40" s="1">
+        <f>G40*Q40</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -4831,8 +4868,9 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
-    </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ40" s="1"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -4857,66 +4895,66 @@
         <v>1010013267</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="1">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1">
+      <c r="O41" s="1"/>
+      <c r="P41" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1" t="e">
+      <c r="R41" s="5"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="1" t="e">
+      <c r="U41" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
       <c r="V41" s="1">
         <v>0</v>
       </c>
       <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
         <v>0.8</v>
       </c>
-      <c r="X41" s="1">
+      <c r="Y41" s="1">
         <v>0</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Z41" s="1">
         <v>1</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="AA41" s="1">
         <v>2</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AB41" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AC41" s="1">
         <v>1</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AD41" s="1">
         <v>1.2</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AE41" s="1">
         <v>1.6</v>
       </c>
-      <c r="AE41" s="17" t="s">
+      <c r="AF41" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF41" s="1">
-        <f>G41*P41</f>
+      <c r="AG41" s="1">
+        <f>G41*Q41</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -4935,8 +4973,9 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
-    </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ41" s="1"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -4961,66 +5000,66 @@
         <v>1010027159</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1">
+      <c r="O42" s="1"/>
+      <c r="P42" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1" t="e">
+      <c r="R42" s="5"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T42" s="1" t="e">
+      <c r="U42" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U42" s="1">
+      <c r="V42" s="1">
         <v>0</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>1.4</v>
       </c>
-      <c r="W42" s="1">
+      <c r="X42" s="1">
         <v>0.8</v>
       </c>
-      <c r="X42" s="1">
+      <c r="Y42" s="1">
         <v>0</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Z42" s="1">
         <v>1</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="AA42" s="1">
         <v>2</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>1.6</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AE42" s="1">
         <v>2.4</v>
       </c>
-      <c r="AE42" s="17" t="s">
+      <c r="AF42" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF42" s="1">
-        <f>G42*P42</f>
+      <c r="AG42" s="1">
+        <f>G42*Q42</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -5039,8 +5078,9 @@
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
-    </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ42" s="1"/>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5092,8 +5132,9 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1"/>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ43" s="1"/>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5145,8 +5186,9 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ44" s="1"/>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5198,8 +5240,9 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
-    </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ45" s="1"/>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5251,8 +5294,9 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
-    </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ46" s="1"/>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5304,8 +5348,9 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
-    </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ47" s="1"/>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5357,8 +5402,9 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
-    </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ48" s="1"/>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5410,8 +5456,9 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
-    </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ49" s="1"/>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5463,8 +5510,9 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1"/>
-    </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ50" s="1"/>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5516,8 +5564,9 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
-    </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ51" s="1"/>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5569,8 +5618,9 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1"/>
-    </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ52" s="1"/>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5622,8 +5672,9 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1"/>
-    </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ53" s="1"/>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5675,8 +5726,9 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
-    </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ54" s="1"/>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5728,8 +5780,9 @@
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1"/>
-    </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ55" s="1"/>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5781,8 +5834,9 @@
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1"/>
-    </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ56" s="1"/>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5834,8 +5888,9 @@
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1"/>
-    </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ57" s="1"/>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5887,8 +5942,9 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
       <c r="AY58" s="1"/>
-    </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ58" s="1"/>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5940,8 +5996,9 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
-    </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ59" s="1"/>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5993,8 +6050,9 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
-    </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ60" s="1"/>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6046,8 +6104,9 @@
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
-    </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ61" s="1"/>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6099,8 +6158,9 @@
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
-    </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ62" s="1"/>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6152,8 +6212,9 @@
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
-    </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ63" s="1"/>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6205,8 +6266,9 @@
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
-    </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ64" s="1"/>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6258,8 +6320,9 @@
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1"/>
-    </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ65" s="1"/>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6311,8 +6374,9 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
-    </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ66" s="1"/>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6364,8 +6428,9 @@
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
-    </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ67" s="1"/>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6417,8 +6482,9 @@
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
-    </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ68" s="1"/>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6470,8 +6536,9 @@
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
-    </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ69" s="1"/>
+    </row>
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6523,8 +6590,9 @@
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
-    </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ70" s="1"/>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6576,8 +6644,9 @@
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
-    </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ71" s="1"/>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6629,8 +6698,9 @@
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
-    </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ72" s="1"/>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6682,8 +6752,9 @@
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
-    </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ73" s="1"/>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6735,8 +6806,9 @@
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
-    </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ74" s="1"/>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6788,8 +6860,9 @@
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
-    </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ75" s="1"/>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6841,8 +6914,9 @@
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
       <c r="AY76" s="1"/>
-    </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ76" s="1"/>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6894,8 +6968,9 @@
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
       <c r="AY77" s="1"/>
-    </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ77" s="1"/>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6947,8 +7022,9 @@
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
-    </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ78" s="1"/>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -7000,8 +7076,9 @@
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
       <c r="AY79" s="1"/>
-    </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ79" s="1"/>
+    </row>
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -7053,8 +7130,9 @@
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
-    </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ80" s="1"/>
+    </row>
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -7106,8 +7184,9 @@
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
-    </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ81" s="1"/>
+    </row>
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -7159,8 +7238,9 @@
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
       <c r="AY82" s="1"/>
-    </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ82" s="1"/>
+    </row>
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -7212,8 +7292,9 @@
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
-    </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ83" s="1"/>
+    </row>
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -7265,8 +7346,9 @@
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
-    </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ84" s="1"/>
+    </row>
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -7318,8 +7400,9 @@
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
-    </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ85" s="1"/>
+    </row>
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -7371,8 +7454,9 @@
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
-    </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ86" s="1"/>
+    </row>
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -7424,8 +7508,9 @@
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
-    </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ87" s="1"/>
+    </row>
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7477,8 +7562,9 @@
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
-    </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ88" s="1"/>
+    </row>
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7530,8 +7616,9 @@
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
-    </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ89" s="1"/>
+    </row>
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7583,8 +7670,9 @@
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
-    </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ90" s="1"/>
+    </row>
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7636,8 +7724,9 @@
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
-    </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ91" s="1"/>
+    </row>
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7689,8 +7778,9 @@
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
       <c r="AY92" s="1"/>
-    </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ92" s="1"/>
+    </row>
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7742,8 +7832,9 @@
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
       <c r="AY93" s="1"/>
-    </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ93" s="1"/>
+    </row>
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7795,8 +7886,9 @@
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
       <c r="AY94" s="1"/>
-    </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ94" s="1"/>
+    </row>
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7848,8 +7940,9 @@
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
       <c r="AY95" s="1"/>
-    </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ95" s="1"/>
+    </row>
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7901,8 +7994,9 @@
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
       <c r="AY96" s="1"/>
-    </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ96" s="1"/>
+    </row>
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7954,8 +8048,9 @@
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
       <c r="AY97" s="1"/>
-    </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ97" s="1"/>
+    </row>
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8007,8 +8102,9 @@
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
       <c r="AY98" s="1"/>
-    </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ98" s="1"/>
+    </row>
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -8060,8 +8156,9 @@
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
       <c r="AY99" s="1"/>
-    </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ99" s="1"/>
+    </row>
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -8113,8 +8210,9 @@
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
       <c r="AY100" s="1"/>
-    </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ100" s="1"/>
+    </row>
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8166,8 +8264,9 @@
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
       <c r="AY101" s="1"/>
-    </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ101" s="1"/>
+    </row>
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8219,8 +8318,9 @@
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
       <c r="AY102" s="1"/>
-    </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ102" s="1"/>
+    </row>
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8272,8 +8372,9 @@
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
       <c r="AY103" s="1"/>
-    </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ103" s="1"/>
+    </row>
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8325,8 +8426,9 @@
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
       <c r="AY104" s="1"/>
-    </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ104" s="1"/>
+    </row>
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8378,8 +8480,9 @@
       <c r="AW105" s="1"/>
       <c r="AX105" s="1"/>
       <c r="AY105" s="1"/>
-    </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ105" s="1"/>
+    </row>
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8431,8 +8534,9 @@
       <c r="AW106" s="1"/>
       <c r="AX106" s="1"/>
       <c r="AY106" s="1"/>
-    </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ106" s="1"/>
+    </row>
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8484,8 +8588,9 @@
       <c r="AW107" s="1"/>
       <c r="AX107" s="1"/>
       <c r="AY107" s="1"/>
-    </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ107" s="1"/>
+    </row>
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8537,8 +8642,9 @@
       <c r="AW108" s="1"/>
       <c r="AX108" s="1"/>
       <c r="AY108" s="1"/>
-    </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ108" s="1"/>
+    </row>
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8590,8 +8696,9 @@
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
       <c r="AY109" s="1"/>
-    </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ109" s="1"/>
+    </row>
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8643,8 +8750,9 @@
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
       <c r="AY110" s="1"/>
-    </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ110" s="1"/>
+    </row>
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8696,8 +8804,9 @@
       <c r="AW111" s="1"/>
       <c r="AX111" s="1"/>
       <c r="AY111" s="1"/>
-    </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ111" s="1"/>
+    </row>
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -8749,8 +8858,9 @@
       <c r="AW112" s="1"/>
       <c r="AX112" s="1"/>
       <c r="AY112" s="1"/>
-    </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ112" s="1"/>
+    </row>
+    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -8802,8 +8912,9 @@
       <c r="AW113" s="1"/>
       <c r="AX113" s="1"/>
       <c r="AY113" s="1"/>
-    </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ113" s="1"/>
+    </row>
+    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -8855,8 +8966,9 @@
       <c r="AW114" s="1"/>
       <c r="AX114" s="1"/>
       <c r="AY114" s="1"/>
-    </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ114" s="1"/>
+    </row>
+    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -8908,8 +9020,9 @@
       <c r="AW115" s="1"/>
       <c r="AX115" s="1"/>
       <c r="AY115" s="1"/>
-    </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ115" s="1"/>
+    </row>
+    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -8961,8 +9074,9 @@
       <c r="AW116" s="1"/>
       <c r="AX116" s="1"/>
       <c r="AY116" s="1"/>
-    </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ116" s="1"/>
+    </row>
+    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -9014,8 +9128,9 @@
       <c r="AW117" s="1"/>
       <c r="AX117" s="1"/>
       <c r="AY117" s="1"/>
-    </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ117" s="1"/>
+    </row>
+    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -9067,8 +9182,9 @@
       <c r="AW118" s="1"/>
       <c r="AX118" s="1"/>
       <c r="AY118" s="1"/>
-    </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ118" s="1"/>
+    </row>
+    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -9120,8 +9236,9 @@
       <c r="AW119" s="1"/>
       <c r="AX119" s="1"/>
       <c r="AY119" s="1"/>
-    </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ119" s="1"/>
+    </row>
+    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -9173,8 +9290,9 @@
       <c r="AW120" s="1"/>
       <c r="AX120" s="1"/>
       <c r="AY120" s="1"/>
-    </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ120" s="1"/>
+    </row>
+    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -9226,8 +9344,9 @@
       <c r="AW121" s="1"/>
       <c r="AX121" s="1"/>
       <c r="AY121" s="1"/>
-    </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ121" s="1"/>
+    </row>
+    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -9279,8 +9398,9 @@
       <c r="AW122" s="1"/>
       <c r="AX122" s="1"/>
       <c r="AY122" s="1"/>
-    </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ122" s="1"/>
+    </row>
+    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -9332,8 +9452,9 @@
       <c r="AW123" s="1"/>
       <c r="AX123" s="1"/>
       <c r="AY123" s="1"/>
-    </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ123" s="1"/>
+    </row>
+    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -9385,8 +9506,9 @@
       <c r="AW124" s="1"/>
       <c r="AX124" s="1"/>
       <c r="AY124" s="1"/>
-    </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ124" s="1"/>
+    </row>
+    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -9438,8 +9560,9 @@
       <c r="AW125" s="1"/>
       <c r="AX125" s="1"/>
       <c r="AY125" s="1"/>
-    </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ125" s="1"/>
+    </row>
+    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -9491,8 +9614,9 @@
       <c r="AW126" s="1"/>
       <c r="AX126" s="1"/>
       <c r="AY126" s="1"/>
-    </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ126" s="1"/>
+    </row>
+    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -9544,8 +9668,9 @@
       <c r="AW127" s="1"/>
       <c r="AX127" s="1"/>
       <c r="AY127" s="1"/>
-    </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ127" s="1"/>
+    </row>
+    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -9597,8 +9722,9 @@
       <c r="AW128" s="1"/>
       <c r="AX128" s="1"/>
       <c r="AY128" s="1"/>
-    </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ128" s="1"/>
+    </row>
+    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -9650,8 +9776,9 @@
       <c r="AW129" s="1"/>
       <c r="AX129" s="1"/>
       <c r="AY129" s="1"/>
-    </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ129" s="1"/>
+    </row>
+    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -9703,8 +9830,9 @@
       <c r="AW130" s="1"/>
       <c r="AX130" s="1"/>
       <c r="AY130" s="1"/>
-    </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ130" s="1"/>
+    </row>
+    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -9756,8 +9884,9 @@
       <c r="AW131" s="1"/>
       <c r="AX131" s="1"/>
       <c r="AY131" s="1"/>
-    </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ131" s="1"/>
+    </row>
+    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -9809,8 +9938,9 @@
       <c r="AW132" s="1"/>
       <c r="AX132" s="1"/>
       <c r="AY132" s="1"/>
-    </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ132" s="1"/>
+    </row>
+    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -9862,8 +9992,9 @@
       <c r="AW133" s="1"/>
       <c r="AX133" s="1"/>
       <c r="AY133" s="1"/>
-    </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ133" s="1"/>
+    </row>
+    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -9915,8 +10046,9 @@
       <c r="AW134" s="1"/>
       <c r="AX134" s="1"/>
       <c r="AY134" s="1"/>
-    </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ134" s="1"/>
+    </row>
+    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -9968,8 +10100,9 @@
       <c r="AW135" s="1"/>
       <c r="AX135" s="1"/>
       <c r="AY135" s="1"/>
-    </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ135" s="1"/>
+    </row>
+    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -10021,8 +10154,9 @@
       <c r="AW136" s="1"/>
       <c r="AX136" s="1"/>
       <c r="AY136" s="1"/>
-    </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ136" s="1"/>
+    </row>
+    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -10074,8 +10208,9 @@
       <c r="AW137" s="1"/>
       <c r="AX137" s="1"/>
       <c r="AY137" s="1"/>
-    </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ137" s="1"/>
+    </row>
+    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -10127,8 +10262,9 @@
       <c r="AW138" s="1"/>
       <c r="AX138" s="1"/>
       <c r="AY138" s="1"/>
-    </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ138" s="1"/>
+    </row>
+    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -10180,8 +10316,9 @@
       <c r="AW139" s="1"/>
       <c r="AX139" s="1"/>
       <c r="AY139" s="1"/>
-    </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ139" s="1"/>
+    </row>
+    <row r="140" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -10233,8 +10370,9 @@
       <c r="AW140" s="1"/>
       <c r="AX140" s="1"/>
       <c r="AY140" s="1"/>
-    </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ140" s="1"/>
+    </row>
+    <row r="141" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -10286,8 +10424,9 @@
       <c r="AW141" s="1"/>
       <c r="AX141" s="1"/>
       <c r="AY141" s="1"/>
-    </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ141" s="1"/>
+    </row>
+    <row r="142" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -10339,8 +10478,9 @@
       <c r="AW142" s="1"/>
       <c r="AX142" s="1"/>
       <c r="AY142" s="1"/>
-    </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ142" s="1"/>
+    </row>
+    <row r="143" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -10392,8 +10532,9 @@
       <c r="AW143" s="1"/>
       <c r="AX143" s="1"/>
       <c r="AY143" s="1"/>
-    </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ143" s="1"/>
+    </row>
+    <row r="144" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -10445,8 +10586,9 @@
       <c r="AW144" s="1"/>
       <c r="AX144" s="1"/>
       <c r="AY144" s="1"/>
-    </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ144" s="1"/>
+    </row>
+    <row r="145" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -10498,8 +10640,9 @@
       <c r="AW145" s="1"/>
       <c r="AX145" s="1"/>
       <c r="AY145" s="1"/>
-    </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ145" s="1"/>
+    </row>
+    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -10551,8 +10694,9 @@
       <c r="AW146" s="1"/>
       <c r="AX146" s="1"/>
       <c r="AY146" s="1"/>
-    </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ146" s="1"/>
+    </row>
+    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -10604,8 +10748,9 @@
       <c r="AW147" s="1"/>
       <c r="AX147" s="1"/>
       <c r="AY147" s="1"/>
-    </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ147" s="1"/>
+    </row>
+    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -10657,8 +10802,9 @@
       <c r="AW148" s="1"/>
       <c r="AX148" s="1"/>
       <c r="AY148" s="1"/>
-    </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ148" s="1"/>
+    </row>
+    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -10710,8 +10856,9 @@
       <c r="AW149" s="1"/>
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
-    </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ149" s="1"/>
+    </row>
+    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -10763,8 +10910,9 @@
       <c r="AW150" s="1"/>
       <c r="AX150" s="1"/>
       <c r="AY150" s="1"/>
-    </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ150" s="1"/>
+    </row>
+    <row r="151" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -10816,8 +10964,9 @@
       <c r="AW151" s="1"/>
       <c r="AX151" s="1"/>
       <c r="AY151" s="1"/>
-    </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ151" s="1"/>
+    </row>
+    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -10869,8 +11018,9 @@
       <c r="AW152" s="1"/>
       <c r="AX152" s="1"/>
       <c r="AY152" s="1"/>
-    </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ152" s="1"/>
+    </row>
+    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -10922,8 +11072,9 @@
       <c r="AW153" s="1"/>
       <c r="AX153" s="1"/>
       <c r="AY153" s="1"/>
-    </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ153" s="1"/>
+    </row>
+    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -10975,8 +11126,9 @@
       <c r="AW154" s="1"/>
       <c r="AX154" s="1"/>
       <c r="AY154" s="1"/>
-    </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ154" s="1"/>
+    </row>
+    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -11028,8 +11180,9 @@
       <c r="AW155" s="1"/>
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
-    </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ155" s="1"/>
+    </row>
+    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -11081,8 +11234,9 @@
       <c r="AW156" s="1"/>
       <c r="AX156" s="1"/>
       <c r="AY156" s="1"/>
-    </row>
-    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ156" s="1"/>
+    </row>
+    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -11134,8 +11288,9 @@
       <c r="AW157" s="1"/>
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
-    </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ157" s="1"/>
+    </row>
+    <row r="158" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -11187,8 +11342,9 @@
       <c r="AW158" s="1"/>
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
-    </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ158" s="1"/>
+    </row>
+    <row r="159" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -11240,8 +11396,9 @@
       <c r="AW159" s="1"/>
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
-    </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ159" s="1"/>
+    </row>
+    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -11293,8 +11450,9 @@
       <c r="AW160" s="1"/>
       <c r="AX160" s="1"/>
       <c r="AY160" s="1"/>
-    </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ160" s="1"/>
+    </row>
+    <row r="161" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -11346,8 +11504,9 @@
       <c r="AW161" s="1"/>
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
-    </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ161" s="1"/>
+    </row>
+    <row r="162" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -11399,8 +11558,9 @@
       <c r="AW162" s="1"/>
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
-    </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ162" s="1"/>
+    </row>
+    <row r="163" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -11452,8 +11612,9 @@
       <c r="AW163" s="1"/>
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
-    </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ163" s="1"/>
+    </row>
+    <row r="164" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -11505,8 +11666,9 @@
       <c r="AW164" s="1"/>
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
-    </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ164" s="1"/>
+    </row>
+    <row r="165" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -11558,8 +11720,9 @@
       <c r="AW165" s="1"/>
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
-    </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ165" s="1"/>
+    </row>
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -11611,8 +11774,9 @@
       <c r="AW166" s="1"/>
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
-    </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ166" s="1"/>
+    </row>
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -11664,8 +11828,9 @@
       <c r="AW167" s="1"/>
       <c r="AX167" s="1"/>
       <c r="AY167" s="1"/>
-    </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ167" s="1"/>
+    </row>
+    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -11717,8 +11882,9 @@
       <c r="AW168" s="1"/>
       <c r="AX168" s="1"/>
       <c r="AY168" s="1"/>
-    </row>
-    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ168" s="1"/>
+    </row>
+    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -11770,8 +11936,9 @@
       <c r="AW169" s="1"/>
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
-    </row>
-    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ169" s="1"/>
+    </row>
+    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -11823,8 +11990,9 @@
       <c r="AW170" s="1"/>
       <c r="AX170" s="1"/>
       <c r="AY170" s="1"/>
-    </row>
-    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ170" s="1"/>
+    </row>
+    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -11876,8 +12044,9 @@
       <c r="AW171" s="1"/>
       <c r="AX171" s="1"/>
       <c r="AY171" s="1"/>
-    </row>
-    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ171" s="1"/>
+    </row>
+    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -11929,8 +12098,9 @@
       <c r="AW172" s="1"/>
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
-    </row>
-    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ172" s="1"/>
+    </row>
+    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -11982,8 +12152,9 @@
       <c r="AW173" s="1"/>
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
-    </row>
-    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ173" s="1"/>
+    </row>
+    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -12035,8 +12206,9 @@
       <c r="AW174" s="1"/>
       <c r="AX174" s="1"/>
       <c r="AY174" s="1"/>
-    </row>
-    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ174" s="1"/>
+    </row>
+    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -12088,8 +12260,9 @@
       <c r="AW175" s="1"/>
       <c r="AX175" s="1"/>
       <c r="AY175" s="1"/>
-    </row>
-    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ175" s="1"/>
+    </row>
+    <row r="176" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -12141,8 +12314,9 @@
       <c r="AW176" s="1"/>
       <c r="AX176" s="1"/>
       <c r="AY176" s="1"/>
-    </row>
-    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ176" s="1"/>
+    </row>
+    <row r="177" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -12194,8 +12368,9 @@
       <c r="AW177" s="1"/>
       <c r="AX177" s="1"/>
       <c r="AY177" s="1"/>
-    </row>
-    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ177" s="1"/>
+    </row>
+    <row r="178" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -12247,8 +12422,9 @@
       <c r="AW178" s="1"/>
       <c r="AX178" s="1"/>
       <c r="AY178" s="1"/>
-    </row>
-    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ178" s="1"/>
+    </row>
+    <row r="179" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -12300,8 +12476,9 @@
       <c r="AW179" s="1"/>
       <c r="AX179" s="1"/>
       <c r="AY179" s="1"/>
-    </row>
-    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ179" s="1"/>
+    </row>
+    <row r="180" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -12353,8 +12530,9 @@
       <c r="AW180" s="1"/>
       <c r="AX180" s="1"/>
       <c r="AY180" s="1"/>
-    </row>
-    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ180" s="1"/>
+    </row>
+    <row r="181" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -12406,8 +12584,9 @@
       <c r="AW181" s="1"/>
       <c r="AX181" s="1"/>
       <c r="AY181" s="1"/>
-    </row>
-    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ181" s="1"/>
+    </row>
+    <row r="182" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -12459,8 +12638,9 @@
       <c r="AW182" s="1"/>
       <c r="AX182" s="1"/>
       <c r="AY182" s="1"/>
-    </row>
-    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ182" s="1"/>
+    </row>
+    <row r="183" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -12512,8 +12692,9 @@
       <c r="AW183" s="1"/>
       <c r="AX183" s="1"/>
       <c r="AY183" s="1"/>
-    </row>
-    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ183" s="1"/>
+    </row>
+    <row r="184" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -12565,8 +12746,9 @@
       <c r="AW184" s="1"/>
       <c r="AX184" s="1"/>
       <c r="AY184" s="1"/>
-    </row>
-    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ184" s="1"/>
+    </row>
+    <row r="185" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -12618,8 +12800,9 @@
       <c r="AW185" s="1"/>
       <c r="AX185" s="1"/>
       <c r="AY185" s="1"/>
-    </row>
-    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ185" s="1"/>
+    </row>
+    <row r="186" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -12671,8 +12854,9 @@
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
-    </row>
-    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ186" s="1"/>
+    </row>
+    <row r="187" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -12724,8 +12908,9 @@
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
       <c r="AY187" s="1"/>
-    </row>
-    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ187" s="1"/>
+    </row>
+    <row r="188" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -12777,8 +12962,9 @@
       <c r="AW188" s="1"/>
       <c r="AX188" s="1"/>
       <c r="AY188" s="1"/>
-    </row>
-    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ188" s="1"/>
+    </row>
+    <row r="189" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12830,8 +13016,9 @@
       <c r="AW189" s="1"/>
       <c r="AX189" s="1"/>
       <c r="AY189" s="1"/>
-    </row>
-    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ189" s="1"/>
+    </row>
+    <row r="190" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12883,8 +13070,9 @@
       <c r="AW190" s="1"/>
       <c r="AX190" s="1"/>
       <c r="AY190" s="1"/>
-    </row>
-    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ190" s="1"/>
+    </row>
+    <row r="191" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12936,8 +13124,9 @@
       <c r="AW191" s="1"/>
       <c r="AX191" s="1"/>
       <c r="AY191" s="1"/>
-    </row>
-    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ191" s="1"/>
+    </row>
+    <row r="192" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -12989,8 +13178,9 @@
       <c r="AW192" s="1"/>
       <c r="AX192" s="1"/>
       <c r="AY192" s="1"/>
-    </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ192" s="1"/>
+    </row>
+    <row r="193" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -13042,8 +13232,9 @@
       <c r="AW193" s="1"/>
       <c r="AX193" s="1"/>
       <c r="AY193" s="1"/>
-    </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ193" s="1"/>
+    </row>
+    <row r="194" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -13095,8 +13286,9 @@
       <c r="AW194" s="1"/>
       <c r="AX194" s="1"/>
       <c r="AY194" s="1"/>
-    </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ194" s="1"/>
+    </row>
+    <row r="195" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -13148,8 +13340,9 @@
       <c r="AW195" s="1"/>
       <c r="AX195" s="1"/>
       <c r="AY195" s="1"/>
-    </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ195" s="1"/>
+    </row>
+    <row r="196" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -13201,8 +13394,9 @@
       <c r="AW196" s="1"/>
       <c r="AX196" s="1"/>
       <c r="AY196" s="1"/>
-    </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ196" s="1"/>
+    </row>
+    <row r="197" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -13254,8 +13448,9 @@
       <c r="AW197" s="1"/>
       <c r="AX197" s="1"/>
       <c r="AY197" s="1"/>
-    </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ197" s="1"/>
+    </row>
+    <row r="198" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -13307,8 +13502,9 @@
       <c r="AW198" s="1"/>
       <c r="AX198" s="1"/>
       <c r="AY198" s="1"/>
-    </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ198" s="1"/>
+    </row>
+    <row r="199" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -13360,8 +13556,9 @@
       <c r="AW199" s="1"/>
       <c r="AX199" s="1"/>
       <c r="AY199" s="1"/>
-    </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ199" s="1"/>
+    </row>
+    <row r="200" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -13413,8 +13610,9 @@
       <c r="AW200" s="1"/>
       <c r="AX200" s="1"/>
       <c r="AY200" s="1"/>
-    </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ200" s="1"/>
+    </row>
+    <row r="201" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -13466,8 +13664,9 @@
       <c r="AW201" s="1"/>
       <c r="AX201" s="1"/>
       <c r="AY201" s="1"/>
-    </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ201" s="1"/>
+    </row>
+    <row r="202" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -13519,8 +13718,9 @@
       <c r="AW202" s="1"/>
       <c r="AX202" s="1"/>
       <c r="AY202" s="1"/>
-    </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ202" s="1"/>
+    </row>
+    <row r="203" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -13572,8 +13772,9 @@
       <c r="AW203" s="1"/>
       <c r="AX203" s="1"/>
       <c r="AY203" s="1"/>
-    </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ203" s="1"/>
+    </row>
+    <row r="204" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -13625,8 +13826,9 @@
       <c r="AW204" s="1"/>
       <c r="AX204" s="1"/>
       <c r="AY204" s="1"/>
-    </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ204" s="1"/>
+    </row>
+    <row r="205" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -13678,8 +13880,9 @@
       <c r="AW205" s="1"/>
       <c r="AX205" s="1"/>
       <c r="AY205" s="1"/>
-    </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ205" s="1"/>
+    </row>
+    <row r="206" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -13731,8 +13934,9 @@
       <c r="AW206" s="1"/>
       <c r="AX206" s="1"/>
       <c r="AY206" s="1"/>
-    </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ206" s="1"/>
+    </row>
+    <row r="207" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -13784,8 +13988,9 @@
       <c r="AW207" s="1"/>
       <c r="AX207" s="1"/>
       <c r="AY207" s="1"/>
-    </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ207" s="1"/>
+    </row>
+    <row r="208" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -13837,8 +14042,9 @@
       <c r="AW208" s="1"/>
       <c r="AX208" s="1"/>
       <c r="AY208" s="1"/>
-    </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ208" s="1"/>
+    </row>
+    <row r="209" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -13890,8 +14096,9 @@
       <c r="AW209" s="1"/>
       <c r="AX209" s="1"/>
       <c r="AY209" s="1"/>
-    </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ209" s="1"/>
+    </row>
+    <row r="210" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -13943,8 +14150,9 @@
       <c r="AW210" s="1"/>
       <c r="AX210" s="1"/>
       <c r="AY210" s="1"/>
-    </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ210" s="1"/>
+    </row>
+    <row r="211" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -13996,8 +14204,9 @@
       <c r="AW211" s="1"/>
       <c r="AX211" s="1"/>
       <c r="AY211" s="1"/>
-    </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ211" s="1"/>
+    </row>
+    <row r="212" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -14049,8 +14258,9 @@
       <c r="AW212" s="1"/>
       <c r="AX212" s="1"/>
       <c r="AY212" s="1"/>
-    </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ212" s="1"/>
+    </row>
+    <row r="213" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -14102,8 +14312,9 @@
       <c r="AW213" s="1"/>
       <c r="AX213" s="1"/>
       <c r="AY213" s="1"/>
-    </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ213" s="1"/>
+    </row>
+    <row r="214" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -14155,8 +14366,9 @@
       <c r="AW214" s="1"/>
       <c r="AX214" s="1"/>
       <c r="AY214" s="1"/>
-    </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ214" s="1"/>
+    </row>
+    <row r="215" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -14208,8 +14420,9 @@
       <c r="AW215" s="1"/>
       <c r="AX215" s="1"/>
       <c r="AY215" s="1"/>
-    </row>
-    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ215" s="1"/>
+    </row>
+    <row r="216" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -14261,8 +14474,9 @@
       <c r="AW216" s="1"/>
       <c r="AX216" s="1"/>
       <c r="AY216" s="1"/>
-    </row>
-    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ216" s="1"/>
+    </row>
+    <row r="217" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -14314,8 +14528,9 @@
       <c r="AW217" s="1"/>
       <c r="AX217" s="1"/>
       <c r="AY217" s="1"/>
-    </row>
-    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ217" s="1"/>
+    </row>
+    <row r="218" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -14367,8 +14582,9 @@
       <c r="AW218" s="1"/>
       <c r="AX218" s="1"/>
       <c r="AY218" s="1"/>
-    </row>
-    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ218" s="1"/>
+    </row>
+    <row r="219" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -14420,8 +14636,9 @@
       <c r="AW219" s="1"/>
       <c r="AX219" s="1"/>
       <c r="AY219" s="1"/>
-    </row>
-    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ219" s="1"/>
+    </row>
+    <row r="220" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -14473,8 +14690,9 @@
       <c r="AW220" s="1"/>
       <c r="AX220" s="1"/>
       <c r="AY220" s="1"/>
-    </row>
-    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ220" s="1"/>
+    </row>
+    <row r="221" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -14526,8 +14744,9 @@
       <c r="AW221" s="1"/>
       <c r="AX221" s="1"/>
       <c r="AY221" s="1"/>
-    </row>
-    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ221" s="1"/>
+    </row>
+    <row r="222" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -14579,8 +14798,9 @@
       <c r="AW222" s="1"/>
       <c r="AX222" s="1"/>
       <c r="AY222" s="1"/>
-    </row>
-    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ222" s="1"/>
+    </row>
+    <row r="223" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -14632,8 +14852,9 @@
       <c r="AW223" s="1"/>
       <c r="AX223" s="1"/>
       <c r="AY223" s="1"/>
-    </row>
-    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ223" s="1"/>
+    </row>
+    <row r="224" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -14685,8 +14906,9 @@
       <c r="AW224" s="1"/>
       <c r="AX224" s="1"/>
       <c r="AY224" s="1"/>
-    </row>
-    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ224" s="1"/>
+    </row>
+    <row r="225" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -14738,8 +14960,9 @@
       <c r="AW225" s="1"/>
       <c r="AX225" s="1"/>
       <c r="AY225" s="1"/>
-    </row>
-    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ225" s="1"/>
+    </row>
+    <row r="226" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -14791,8 +15014,9 @@
       <c r="AW226" s="1"/>
       <c r="AX226" s="1"/>
       <c r="AY226" s="1"/>
-    </row>
-    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ226" s="1"/>
+    </row>
+    <row r="227" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -14844,8 +15068,9 @@
       <c r="AW227" s="1"/>
       <c r="AX227" s="1"/>
       <c r="AY227" s="1"/>
-    </row>
-    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ227" s="1"/>
+    </row>
+    <row r="228" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -14897,8 +15122,9 @@
       <c r="AW228" s="1"/>
       <c r="AX228" s="1"/>
       <c r="AY228" s="1"/>
-    </row>
-    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ228" s="1"/>
+    </row>
+    <row r="229" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -14950,8 +15176,9 @@
       <c r="AW229" s="1"/>
       <c r="AX229" s="1"/>
       <c r="AY229" s="1"/>
-    </row>
-    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ229" s="1"/>
+    </row>
+    <row r="230" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -15003,8 +15230,9 @@
       <c r="AW230" s="1"/>
       <c r="AX230" s="1"/>
       <c r="AY230" s="1"/>
-    </row>
-    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ230" s="1"/>
+    </row>
+    <row r="231" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -15056,8 +15284,9 @@
       <c r="AW231" s="1"/>
       <c r="AX231" s="1"/>
       <c r="AY231" s="1"/>
-    </row>
-    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ231" s="1"/>
+    </row>
+    <row r="232" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -15109,8 +15338,9 @@
       <c r="AW232" s="1"/>
       <c r="AX232" s="1"/>
       <c r="AY232" s="1"/>
-    </row>
-    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ232" s="1"/>
+    </row>
+    <row r="233" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -15162,8 +15392,9 @@
       <c r="AW233" s="1"/>
       <c r="AX233" s="1"/>
       <c r="AY233" s="1"/>
-    </row>
-    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ233" s="1"/>
+    </row>
+    <row r="234" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -15215,8 +15446,9 @@
       <c r="AW234" s="1"/>
       <c r="AX234" s="1"/>
       <c r="AY234" s="1"/>
-    </row>
-    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ234" s="1"/>
+    </row>
+    <row r="235" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -15268,8 +15500,9 @@
       <c r="AW235" s="1"/>
       <c r="AX235" s="1"/>
       <c r="AY235" s="1"/>
-    </row>
-    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ235" s="1"/>
+    </row>
+    <row r="236" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -15321,8 +15554,9 @@
       <c r="AW236" s="1"/>
       <c r="AX236" s="1"/>
       <c r="AY236" s="1"/>
-    </row>
-    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ236" s="1"/>
+    </row>
+    <row r="237" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -15374,8 +15608,9 @@
       <c r="AW237" s="1"/>
       <c r="AX237" s="1"/>
       <c r="AY237" s="1"/>
-    </row>
-    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ237" s="1"/>
+    </row>
+    <row r="238" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -15427,8 +15662,9 @@
       <c r="AW238" s="1"/>
       <c r="AX238" s="1"/>
       <c r="AY238" s="1"/>
-    </row>
-    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ238" s="1"/>
+    </row>
+    <row r="239" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -15480,8 +15716,9 @@
       <c r="AW239" s="1"/>
       <c r="AX239" s="1"/>
       <c r="AY239" s="1"/>
-    </row>
-    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ239" s="1"/>
+    </row>
+    <row r="240" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -15533,8 +15770,9 @@
       <c r="AW240" s="1"/>
       <c r="AX240" s="1"/>
       <c r="AY240" s="1"/>
-    </row>
-    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ240" s="1"/>
+    </row>
+    <row r="241" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -15586,8 +15824,9 @@
       <c r="AW241" s="1"/>
       <c r="AX241" s="1"/>
       <c r="AY241" s="1"/>
-    </row>
-    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ241" s="1"/>
+    </row>
+    <row r="242" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -15639,8 +15878,9 @@
       <c r="AW242" s="1"/>
       <c r="AX242" s="1"/>
       <c r="AY242" s="1"/>
-    </row>
-    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ242" s="1"/>
+    </row>
+    <row r="243" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -15692,8 +15932,9 @@
       <c r="AW243" s="1"/>
       <c r="AX243" s="1"/>
       <c r="AY243" s="1"/>
-    </row>
-    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ243" s="1"/>
+    </row>
+    <row r="244" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -15745,8 +15986,9 @@
       <c r="AW244" s="1"/>
       <c r="AX244" s="1"/>
       <c r="AY244" s="1"/>
-    </row>
-    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ244" s="1"/>
+    </row>
+    <row r="245" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -15798,8 +16040,9 @@
       <c r="AW245" s="1"/>
       <c r="AX245" s="1"/>
       <c r="AY245" s="1"/>
-    </row>
-    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ245" s="1"/>
+    </row>
+    <row r="246" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -15851,8 +16094,9 @@
       <c r="AW246" s="1"/>
       <c r="AX246" s="1"/>
       <c r="AY246" s="1"/>
-    </row>
-    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ246" s="1"/>
+    </row>
+    <row r="247" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -15904,8 +16148,9 @@
       <c r="AW247" s="1"/>
       <c r="AX247" s="1"/>
       <c r="AY247" s="1"/>
-    </row>
-    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ247" s="1"/>
+    </row>
+    <row r="248" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -15957,8 +16202,9 @@
       <c r="AW248" s="1"/>
       <c r="AX248" s="1"/>
       <c r="AY248" s="1"/>
-    </row>
-    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ248" s="1"/>
+    </row>
+    <row r="249" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -16010,8 +16256,9 @@
       <c r="AW249" s="1"/>
       <c r="AX249" s="1"/>
       <c r="AY249" s="1"/>
-    </row>
-    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ249" s="1"/>
+    </row>
+    <row r="250" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -16063,8 +16310,9 @@
       <c r="AW250" s="1"/>
       <c r="AX250" s="1"/>
       <c r="AY250" s="1"/>
-    </row>
-    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ250" s="1"/>
+    </row>
+    <row r="251" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -16116,8 +16364,9 @@
       <c r="AW251" s="1"/>
       <c r="AX251" s="1"/>
       <c r="AY251" s="1"/>
-    </row>
-    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ251" s="1"/>
+    </row>
+    <row r="252" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -16169,8 +16418,9 @@
       <c r="AW252" s="1"/>
       <c r="AX252" s="1"/>
       <c r="AY252" s="1"/>
-    </row>
-    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ252" s="1"/>
+    </row>
+    <row r="253" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -16222,8 +16472,9 @@
       <c r="AW253" s="1"/>
       <c r="AX253" s="1"/>
       <c r="AY253" s="1"/>
-    </row>
-    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ253" s="1"/>
+    </row>
+    <row r="254" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -16275,8 +16526,9 @@
       <c r="AW254" s="1"/>
       <c r="AX254" s="1"/>
       <c r="AY254" s="1"/>
-    </row>
-    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ254" s="1"/>
+    </row>
+    <row r="255" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -16328,8 +16580,9 @@
       <c r="AW255" s="1"/>
       <c r="AX255" s="1"/>
       <c r="AY255" s="1"/>
-    </row>
-    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ255" s="1"/>
+    </row>
+    <row r="256" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -16381,8 +16634,9 @@
       <c r="AW256" s="1"/>
       <c r="AX256" s="1"/>
       <c r="AY256" s="1"/>
-    </row>
-    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ256" s="1"/>
+    </row>
+    <row r="257" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -16434,8 +16688,9 @@
       <c r="AW257" s="1"/>
       <c r="AX257" s="1"/>
       <c r="AY257" s="1"/>
-    </row>
-    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ257" s="1"/>
+    </row>
+    <row r="258" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -16487,8 +16742,9 @@
       <c r="AW258" s="1"/>
       <c r="AX258" s="1"/>
       <c r="AY258" s="1"/>
-    </row>
-    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ258" s="1"/>
+    </row>
+    <row r="259" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -16540,8 +16796,9 @@
       <c r="AW259" s="1"/>
       <c r="AX259" s="1"/>
       <c r="AY259" s="1"/>
-    </row>
-    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ259" s="1"/>
+    </row>
+    <row r="260" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -16593,8 +16850,9 @@
       <c r="AW260" s="1"/>
       <c r="AX260" s="1"/>
       <c r="AY260" s="1"/>
-    </row>
-    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ260" s="1"/>
+    </row>
+    <row r="261" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -16646,8 +16904,9 @@
       <c r="AW261" s="1"/>
       <c r="AX261" s="1"/>
       <c r="AY261" s="1"/>
-    </row>
-    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ261" s="1"/>
+    </row>
+    <row r="262" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -16699,8 +16958,9 @@
       <c r="AW262" s="1"/>
       <c r="AX262" s="1"/>
       <c r="AY262" s="1"/>
-    </row>
-    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ262" s="1"/>
+    </row>
+    <row r="263" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -16752,8 +17012,9 @@
       <c r="AW263" s="1"/>
       <c r="AX263" s="1"/>
       <c r="AY263" s="1"/>
-    </row>
-    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ263" s="1"/>
+    </row>
+    <row r="264" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -16805,8 +17066,9 @@
       <c r="AW264" s="1"/>
       <c r="AX264" s="1"/>
       <c r="AY264" s="1"/>
-    </row>
-    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ264" s="1"/>
+    </row>
+    <row r="265" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -16858,8 +17120,9 @@
       <c r="AW265" s="1"/>
       <c r="AX265" s="1"/>
       <c r="AY265" s="1"/>
-    </row>
-    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ265" s="1"/>
+    </row>
+    <row r="266" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -16911,8 +17174,9 @@
       <c r="AW266" s="1"/>
       <c r="AX266" s="1"/>
       <c r="AY266" s="1"/>
-    </row>
-    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ266" s="1"/>
+    </row>
+    <row r="267" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -16964,8 +17228,9 @@
       <c r="AW267" s="1"/>
       <c r="AX267" s="1"/>
       <c r="AY267" s="1"/>
-    </row>
-    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ267" s="1"/>
+    </row>
+    <row r="268" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -17017,8 +17282,9 @@
       <c r="AW268" s="1"/>
       <c r="AX268" s="1"/>
       <c r="AY268" s="1"/>
-    </row>
-    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ268" s="1"/>
+    </row>
+    <row r="269" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -17070,8 +17336,9 @@
       <c r="AW269" s="1"/>
       <c r="AX269" s="1"/>
       <c r="AY269" s="1"/>
-    </row>
-    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ269" s="1"/>
+    </row>
+    <row r="270" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -17123,8 +17390,9 @@
       <c r="AW270" s="1"/>
       <c r="AX270" s="1"/>
       <c r="AY270" s="1"/>
-    </row>
-    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ270" s="1"/>
+    </row>
+    <row r="271" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -17176,8 +17444,9 @@
       <c r="AW271" s="1"/>
       <c r="AX271" s="1"/>
       <c r="AY271" s="1"/>
-    </row>
-    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ271" s="1"/>
+    </row>
+    <row r="272" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -17229,8 +17498,9 @@
       <c r="AW272" s="1"/>
       <c r="AX272" s="1"/>
       <c r="AY272" s="1"/>
-    </row>
-    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ272" s="1"/>
+    </row>
+    <row r="273" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -17282,8 +17552,9 @@
       <c r="AW273" s="1"/>
       <c r="AX273" s="1"/>
       <c r="AY273" s="1"/>
-    </row>
-    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ273" s="1"/>
+    </row>
+    <row r="274" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -17335,8 +17606,9 @@
       <c r="AW274" s="1"/>
       <c r="AX274" s="1"/>
       <c r="AY274" s="1"/>
-    </row>
-    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ274" s="1"/>
+    </row>
+    <row r="275" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -17388,8 +17660,9 @@
       <c r="AW275" s="1"/>
       <c r="AX275" s="1"/>
       <c r="AY275" s="1"/>
-    </row>
-    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ275" s="1"/>
+    </row>
+    <row r="276" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -17441,8 +17714,9 @@
       <c r="AW276" s="1"/>
       <c r="AX276" s="1"/>
       <c r="AY276" s="1"/>
-    </row>
-    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ276" s="1"/>
+    </row>
+    <row r="277" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -17494,8 +17768,9 @@
       <c r="AW277" s="1"/>
       <c r="AX277" s="1"/>
       <c r="AY277" s="1"/>
-    </row>
-    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ277" s="1"/>
+    </row>
+    <row r="278" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -17547,8 +17822,9 @@
       <c r="AW278" s="1"/>
       <c r="AX278" s="1"/>
       <c r="AY278" s="1"/>
-    </row>
-    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ278" s="1"/>
+    </row>
+    <row r="279" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -17600,8 +17876,9 @@
       <c r="AW279" s="1"/>
       <c r="AX279" s="1"/>
       <c r="AY279" s="1"/>
-    </row>
-    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ279" s="1"/>
+    </row>
+    <row r="280" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -17653,8 +17930,9 @@
       <c r="AW280" s="1"/>
       <c r="AX280" s="1"/>
       <c r="AY280" s="1"/>
-    </row>
-    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ280" s="1"/>
+    </row>
+    <row r="281" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -17706,8 +17984,9 @@
       <c r="AW281" s="1"/>
       <c r="AX281" s="1"/>
       <c r="AY281" s="1"/>
-    </row>
-    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ281" s="1"/>
+    </row>
+    <row r="282" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -17759,8 +18038,9 @@
       <c r="AW282" s="1"/>
       <c r="AX282" s="1"/>
       <c r="AY282" s="1"/>
-    </row>
-    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ282" s="1"/>
+    </row>
+    <row r="283" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -17812,8 +18092,9 @@
       <c r="AW283" s="1"/>
       <c r="AX283" s="1"/>
       <c r="AY283" s="1"/>
-    </row>
-    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ283" s="1"/>
+    </row>
+    <row r="284" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -17865,8 +18146,9 @@
       <c r="AW284" s="1"/>
       <c r="AX284" s="1"/>
       <c r="AY284" s="1"/>
-    </row>
-    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ284" s="1"/>
+    </row>
+    <row r="285" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -17918,8 +18200,9 @@
       <c r="AW285" s="1"/>
       <c r="AX285" s="1"/>
       <c r="AY285" s="1"/>
-    </row>
-    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ285" s="1"/>
+    </row>
+    <row r="286" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -17971,8 +18254,9 @@
       <c r="AW286" s="1"/>
       <c r="AX286" s="1"/>
       <c r="AY286" s="1"/>
-    </row>
-    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ286" s="1"/>
+    </row>
+    <row r="287" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -18024,8 +18308,9 @@
       <c r="AW287" s="1"/>
       <c r="AX287" s="1"/>
       <c r="AY287" s="1"/>
-    </row>
-    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ287" s="1"/>
+    </row>
+    <row r="288" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -18077,8 +18362,9 @@
       <c r="AW288" s="1"/>
       <c r="AX288" s="1"/>
       <c r="AY288" s="1"/>
-    </row>
-    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ288" s="1"/>
+    </row>
+    <row r="289" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -18130,8 +18416,9 @@
       <c r="AW289" s="1"/>
       <c r="AX289" s="1"/>
       <c r="AY289" s="1"/>
-    </row>
-    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ289" s="1"/>
+    </row>
+    <row r="290" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -18183,8 +18470,9 @@
       <c r="AW290" s="1"/>
       <c r="AX290" s="1"/>
       <c r="AY290" s="1"/>
-    </row>
-    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ290" s="1"/>
+    </row>
+    <row r="291" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -18236,8 +18524,9 @@
       <c r="AW291" s="1"/>
       <c r="AX291" s="1"/>
       <c r="AY291" s="1"/>
-    </row>
-    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ291" s="1"/>
+    </row>
+    <row r="292" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -18289,8 +18578,9 @@
       <c r="AW292" s="1"/>
       <c r="AX292" s="1"/>
       <c r="AY292" s="1"/>
-    </row>
-    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ292" s="1"/>
+    </row>
+    <row r="293" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -18342,8 +18632,9 @@
       <c r="AW293" s="1"/>
       <c r="AX293" s="1"/>
       <c r="AY293" s="1"/>
-    </row>
-    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ293" s="1"/>
+    </row>
+    <row r="294" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -18395,8 +18686,9 @@
       <c r="AW294" s="1"/>
       <c r="AX294" s="1"/>
       <c r="AY294" s="1"/>
-    </row>
-    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ294" s="1"/>
+    </row>
+    <row r="295" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -18448,8 +18740,9 @@
       <c r="AW295" s="1"/>
       <c r="AX295" s="1"/>
       <c r="AY295" s="1"/>
-    </row>
-    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ295" s="1"/>
+    </row>
+    <row r="296" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -18501,8 +18794,9 @@
       <c r="AW296" s="1"/>
       <c r="AX296" s="1"/>
       <c r="AY296" s="1"/>
-    </row>
-    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ296" s="1"/>
+    </row>
+    <row r="297" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -18554,8 +18848,9 @@
       <c r="AW297" s="1"/>
       <c r="AX297" s="1"/>
       <c r="AY297" s="1"/>
-    </row>
-    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ297" s="1"/>
+    </row>
+    <row r="298" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -18607,8 +18902,9 @@
       <c r="AW298" s="1"/>
       <c r="AX298" s="1"/>
       <c r="AY298" s="1"/>
-    </row>
-    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ298" s="1"/>
+    </row>
+    <row r="299" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -18660,8 +18956,9 @@
       <c r="AW299" s="1"/>
       <c r="AX299" s="1"/>
       <c r="AY299" s="1"/>
-    </row>
-    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ299" s="1"/>
+    </row>
+    <row r="300" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -18713,8 +19010,9 @@
       <c r="AW300" s="1"/>
       <c r="AX300" s="1"/>
       <c r="AY300" s="1"/>
-    </row>
-    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ300" s="1"/>
+    </row>
+    <row r="301" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -18766,8 +19064,9 @@
       <c r="AW301" s="1"/>
       <c r="AX301" s="1"/>
       <c r="AY301" s="1"/>
-    </row>
-    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ301" s="1"/>
+    </row>
+    <row r="302" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -18819,8 +19118,9 @@
       <c r="AW302" s="1"/>
       <c r="AX302" s="1"/>
       <c r="AY302" s="1"/>
-    </row>
-    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ302" s="1"/>
+    </row>
+    <row r="303" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -18872,8 +19172,9 @@
       <c r="AW303" s="1"/>
       <c r="AX303" s="1"/>
       <c r="AY303" s="1"/>
-    </row>
-    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ303" s="1"/>
+    </row>
+    <row r="304" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -18925,8 +19226,9 @@
       <c r="AW304" s="1"/>
       <c r="AX304" s="1"/>
       <c r="AY304" s="1"/>
-    </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ304" s="1"/>
+    </row>
+    <row r="305" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -18978,8 +19280,9 @@
       <c r="AW305" s="1"/>
       <c r="AX305" s="1"/>
       <c r="AY305" s="1"/>
-    </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ305" s="1"/>
+    </row>
+    <row r="306" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -19031,8 +19334,9 @@
       <c r="AW306" s="1"/>
       <c r="AX306" s="1"/>
       <c r="AY306" s="1"/>
-    </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ306" s="1"/>
+    </row>
+    <row r="307" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -19084,8 +19388,9 @@
       <c r="AW307" s="1"/>
       <c r="AX307" s="1"/>
       <c r="AY307" s="1"/>
-    </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ307" s="1"/>
+    </row>
+    <row r="308" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -19137,8 +19442,9 @@
       <c r="AW308" s="1"/>
       <c r="AX308" s="1"/>
       <c r="AY308" s="1"/>
-    </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ308" s="1"/>
+    </row>
+    <row r="309" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -19190,8 +19496,9 @@
       <c r="AW309" s="1"/>
       <c r="AX309" s="1"/>
       <c r="AY309" s="1"/>
-    </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ309" s="1"/>
+    </row>
+    <row r="310" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -19243,8 +19550,9 @@
       <c r="AW310" s="1"/>
       <c r="AX310" s="1"/>
       <c r="AY310" s="1"/>
-    </row>
-    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ310" s="1"/>
+    </row>
+    <row r="311" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -19296,8 +19604,9 @@
       <c r="AW311" s="1"/>
       <c r="AX311" s="1"/>
       <c r="AY311" s="1"/>
-    </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ311" s="1"/>
+    </row>
+    <row r="312" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -19349,8 +19658,9 @@
       <c r="AW312" s="1"/>
       <c r="AX312" s="1"/>
       <c r="AY312" s="1"/>
-    </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ312" s="1"/>
+    </row>
+    <row r="313" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -19402,8 +19712,9 @@
       <c r="AW313" s="1"/>
       <c r="AX313" s="1"/>
       <c r="AY313" s="1"/>
-    </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ313" s="1"/>
+    </row>
+    <row r="314" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -19455,8 +19766,9 @@
       <c r="AW314" s="1"/>
       <c r="AX314" s="1"/>
       <c r="AY314" s="1"/>
-    </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ314" s="1"/>
+    </row>
+    <row r="315" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -19508,8 +19820,9 @@
       <c r="AW315" s="1"/>
       <c r="AX315" s="1"/>
       <c r="AY315" s="1"/>
-    </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ315" s="1"/>
+    </row>
+    <row r="316" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -19561,8 +19874,9 @@
       <c r="AW316" s="1"/>
       <c r="AX316" s="1"/>
       <c r="AY316" s="1"/>
-    </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ316" s="1"/>
+    </row>
+    <row r="317" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -19614,8 +19928,9 @@
       <c r="AW317" s="1"/>
       <c r="AX317" s="1"/>
       <c r="AY317" s="1"/>
-    </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ317" s="1"/>
+    </row>
+    <row r="318" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -19667,8 +19982,9 @@
       <c r="AW318" s="1"/>
       <c r="AX318" s="1"/>
       <c r="AY318" s="1"/>
-    </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ318" s="1"/>
+    </row>
+    <row r="319" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -19720,8 +20036,9 @@
       <c r="AW319" s="1"/>
       <c r="AX319" s="1"/>
       <c r="AY319" s="1"/>
-    </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ319" s="1"/>
+    </row>
+    <row r="320" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -19773,8 +20090,9 @@
       <c r="AW320" s="1"/>
       <c r="AX320" s="1"/>
       <c r="AY320" s="1"/>
-    </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ320" s="1"/>
+    </row>
+    <row r="321" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -19826,8 +20144,9 @@
       <c r="AW321" s="1"/>
       <c r="AX321" s="1"/>
       <c r="AY321" s="1"/>
-    </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ321" s="1"/>
+    </row>
+    <row r="322" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -19879,8 +20198,9 @@
       <c r="AW322" s="1"/>
       <c r="AX322" s="1"/>
       <c r="AY322" s="1"/>
-    </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ322" s="1"/>
+    </row>
+    <row r="323" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -19932,8 +20252,9 @@
       <c r="AW323" s="1"/>
       <c r="AX323" s="1"/>
       <c r="AY323" s="1"/>
-    </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ323" s="1"/>
+    </row>
+    <row r="324" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -19985,8 +20306,9 @@
       <c r="AW324" s="1"/>
       <c r="AX324" s="1"/>
       <c r="AY324" s="1"/>
-    </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ324" s="1"/>
+    </row>
+    <row r="325" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -20038,8 +20360,9 @@
       <c r="AW325" s="1"/>
       <c r="AX325" s="1"/>
       <c r="AY325" s="1"/>
-    </row>
-    <row r="326" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ325" s="1"/>
+    </row>
+    <row r="326" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -20091,8 +20414,9 @@
       <c r="AW326" s="1"/>
       <c r="AX326" s="1"/>
       <c r="AY326" s="1"/>
-    </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ326" s="1"/>
+    </row>
+    <row r="327" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -20144,8 +20468,9 @@
       <c r="AW327" s="1"/>
       <c r="AX327" s="1"/>
       <c r="AY327" s="1"/>
-    </row>
-    <row r="328" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ327" s="1"/>
+    </row>
+    <row r="328" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -20197,8 +20522,9 @@
       <c r="AW328" s="1"/>
       <c r="AX328" s="1"/>
       <c r="AY328" s="1"/>
-    </row>
-    <row r="329" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ328" s="1"/>
+    </row>
+    <row r="329" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -20250,8 +20576,9 @@
       <c r="AW329" s="1"/>
       <c r="AX329" s="1"/>
       <c r="AY329" s="1"/>
-    </row>
-    <row r="330" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ329" s="1"/>
+    </row>
+    <row r="330" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -20303,8 +20630,9 @@
       <c r="AW330" s="1"/>
       <c r="AX330" s="1"/>
       <c r="AY330" s="1"/>
-    </row>
-    <row r="331" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ330" s="1"/>
+    </row>
+    <row r="331" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -20356,8 +20684,9 @@
       <c r="AW331" s="1"/>
       <c r="AX331" s="1"/>
       <c r="AY331" s="1"/>
-    </row>
-    <row r="332" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ331" s="1"/>
+    </row>
+    <row r="332" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -20409,8 +20738,9 @@
       <c r="AW332" s="1"/>
       <c r="AX332" s="1"/>
       <c r="AY332" s="1"/>
-    </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ332" s="1"/>
+    </row>
+    <row r="333" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -20462,8 +20792,9 @@
       <c r="AW333" s="1"/>
       <c r="AX333" s="1"/>
       <c r="AY333" s="1"/>
-    </row>
-    <row r="334" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ333" s="1"/>
+    </row>
+    <row r="334" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -20515,8 +20846,9 @@
       <c r="AW334" s="1"/>
       <c r="AX334" s="1"/>
       <c r="AY334" s="1"/>
-    </row>
-    <row r="335" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ334" s="1"/>
+    </row>
+    <row r="335" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -20568,8 +20900,9 @@
       <c r="AW335" s="1"/>
       <c r="AX335" s="1"/>
       <c r="AY335" s="1"/>
-    </row>
-    <row r="336" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ335" s="1"/>
+    </row>
+    <row r="336" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -20621,8 +20954,9 @@
       <c r="AW336" s="1"/>
       <c r="AX336" s="1"/>
       <c r="AY336" s="1"/>
-    </row>
-    <row r="337" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ336" s="1"/>
+    </row>
+    <row r="337" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -20674,8 +21008,9 @@
       <c r="AW337" s="1"/>
       <c r="AX337" s="1"/>
       <c r="AY337" s="1"/>
-    </row>
-    <row r="338" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ337" s="1"/>
+    </row>
+    <row r="338" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -20727,8 +21062,9 @@
       <c r="AW338" s="1"/>
       <c r="AX338" s="1"/>
       <c r="AY338" s="1"/>
-    </row>
-    <row r="339" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ338" s="1"/>
+    </row>
+    <row r="339" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -20780,8 +21116,9 @@
       <c r="AW339" s="1"/>
       <c r="AX339" s="1"/>
       <c r="AY339" s="1"/>
-    </row>
-    <row r="340" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ339" s="1"/>
+    </row>
+    <row r="340" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -20833,8 +21170,9 @@
       <c r="AW340" s="1"/>
       <c r="AX340" s="1"/>
       <c r="AY340" s="1"/>
-    </row>
-    <row r="341" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ340" s="1"/>
+    </row>
+    <row r="341" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -20886,8 +21224,9 @@
       <c r="AW341" s="1"/>
       <c r="AX341" s="1"/>
       <c r="AY341" s="1"/>
-    </row>
-    <row r="342" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ341" s="1"/>
+    </row>
+    <row r="342" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -20939,8 +21278,9 @@
       <c r="AW342" s="1"/>
       <c r="AX342" s="1"/>
       <c r="AY342" s="1"/>
-    </row>
-    <row r="343" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ342" s="1"/>
+    </row>
+    <row r="343" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -20992,8 +21332,9 @@
       <c r="AW343" s="1"/>
       <c r="AX343" s="1"/>
       <c r="AY343" s="1"/>
-    </row>
-    <row r="344" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ343" s="1"/>
+    </row>
+    <row r="344" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -21045,8 +21386,9 @@
       <c r="AW344" s="1"/>
       <c r="AX344" s="1"/>
       <c r="AY344" s="1"/>
-    </row>
-    <row r="345" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ344" s="1"/>
+    </row>
+    <row r="345" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -21098,8 +21440,9 @@
       <c r="AW345" s="1"/>
       <c r="AX345" s="1"/>
       <c r="AY345" s="1"/>
-    </row>
-    <row r="346" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ345" s="1"/>
+    </row>
+    <row r="346" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -21151,8 +21494,9 @@
       <c r="AW346" s="1"/>
       <c r="AX346" s="1"/>
       <c r="AY346" s="1"/>
-    </row>
-    <row r="347" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ346" s="1"/>
+    </row>
+    <row r="347" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -21204,8 +21548,9 @@
       <c r="AW347" s="1"/>
       <c r="AX347" s="1"/>
       <c r="AY347" s="1"/>
-    </row>
-    <row r="348" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ347" s="1"/>
+    </row>
+    <row r="348" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -21257,8 +21602,9 @@
       <c r="AW348" s="1"/>
       <c r="AX348" s="1"/>
       <c r="AY348" s="1"/>
-    </row>
-    <row r="349" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ348" s="1"/>
+    </row>
+    <row r="349" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -21310,8 +21656,9 @@
       <c r="AW349" s="1"/>
       <c r="AX349" s="1"/>
       <c r="AY349" s="1"/>
-    </row>
-    <row r="350" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ349" s="1"/>
+    </row>
+    <row r="350" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -21363,8 +21710,9 @@
       <c r="AW350" s="1"/>
       <c r="AX350" s="1"/>
       <c r="AY350" s="1"/>
-    </row>
-    <row r="351" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ350" s="1"/>
+    </row>
+    <row r="351" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -21416,8 +21764,9 @@
       <c r="AW351" s="1"/>
       <c r="AX351" s="1"/>
       <c r="AY351" s="1"/>
-    </row>
-    <row r="352" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ351" s="1"/>
+    </row>
+    <row r="352" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -21469,8 +21818,9 @@
       <c r="AW352" s="1"/>
       <c r="AX352" s="1"/>
       <c r="AY352" s="1"/>
-    </row>
-    <row r="353" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ352" s="1"/>
+    </row>
+    <row r="353" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -21522,8 +21872,9 @@
       <c r="AW353" s="1"/>
       <c r="AX353" s="1"/>
       <c r="AY353" s="1"/>
-    </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ353" s="1"/>
+    </row>
+    <row r="354" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -21575,8 +21926,9 @@
       <c r="AW354" s="1"/>
       <c r="AX354" s="1"/>
       <c r="AY354" s="1"/>
-    </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ354" s="1"/>
+    </row>
+    <row r="355" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -21628,8 +21980,9 @@
       <c r="AW355" s="1"/>
       <c r="AX355" s="1"/>
       <c r="AY355" s="1"/>
-    </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ355" s="1"/>
+    </row>
+    <row r="356" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -21681,8 +22034,9 @@
       <c r="AW356" s="1"/>
       <c r="AX356" s="1"/>
       <c r="AY356" s="1"/>
-    </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ356" s="1"/>
+    </row>
+    <row r="357" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -21734,8 +22088,9 @@
       <c r="AW357" s="1"/>
       <c r="AX357" s="1"/>
       <c r="AY357" s="1"/>
-    </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ357" s="1"/>
+    </row>
+    <row r="358" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -21787,8 +22142,9 @@
       <c r="AW358" s="1"/>
       <c r="AX358" s="1"/>
       <c r="AY358" s="1"/>
-    </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ358" s="1"/>
+    </row>
+    <row r="359" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -21840,8 +22196,9 @@
       <c r="AW359" s="1"/>
       <c r="AX359" s="1"/>
       <c r="AY359" s="1"/>
-    </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ359" s="1"/>
+    </row>
+    <row r="360" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -21893,8 +22250,9 @@
       <c r="AW360" s="1"/>
       <c r="AX360" s="1"/>
       <c r="AY360" s="1"/>
-    </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ360" s="1"/>
+    </row>
+    <row r="361" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -21946,8 +22304,9 @@
       <c r="AW361" s="1"/>
       <c r="AX361" s="1"/>
       <c r="AY361" s="1"/>
-    </row>
-    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ361" s="1"/>
+    </row>
+    <row r="362" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -21999,8 +22358,9 @@
       <c r="AW362" s="1"/>
       <c r="AX362" s="1"/>
       <c r="AY362" s="1"/>
-    </row>
-    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ362" s="1"/>
+    </row>
+    <row r="363" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -22052,8 +22412,9 @@
       <c r="AW363" s="1"/>
       <c r="AX363" s="1"/>
       <c r="AY363" s="1"/>
-    </row>
-    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ363" s="1"/>
+    </row>
+    <row r="364" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -22105,8 +22466,9 @@
       <c r="AW364" s="1"/>
       <c r="AX364" s="1"/>
       <c r="AY364" s="1"/>
-    </row>
-    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ364" s="1"/>
+    </row>
+    <row r="365" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -22158,8 +22520,9 @@
       <c r="AW365" s="1"/>
       <c r="AX365" s="1"/>
       <c r="AY365" s="1"/>
-    </row>
-    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ365" s="1"/>
+    </row>
+    <row r="366" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -22211,8 +22574,9 @@
       <c r="AW366" s="1"/>
       <c r="AX366" s="1"/>
       <c r="AY366" s="1"/>
-    </row>
-    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ366" s="1"/>
+    </row>
+    <row r="367" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -22264,8 +22628,9 @@
       <c r="AW367" s="1"/>
       <c r="AX367" s="1"/>
       <c r="AY367" s="1"/>
-    </row>
-    <row r="368" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ367" s="1"/>
+    </row>
+    <row r="368" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -22317,8 +22682,9 @@
       <c r="AW368" s="1"/>
       <c r="AX368" s="1"/>
       <c r="AY368" s="1"/>
-    </row>
-    <row r="369" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ368" s="1"/>
+    </row>
+    <row r="369" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -22370,8 +22736,9 @@
       <c r="AW369" s="1"/>
       <c r="AX369" s="1"/>
       <c r="AY369" s="1"/>
-    </row>
-    <row r="370" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ369" s="1"/>
+    </row>
+    <row r="370" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -22423,8 +22790,9 @@
       <c r="AW370" s="1"/>
       <c r="AX370" s="1"/>
       <c r="AY370" s="1"/>
-    </row>
-    <row r="371" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ370" s="1"/>
+    </row>
+    <row r="371" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -22476,8 +22844,9 @@
       <c r="AW371" s="1"/>
       <c r="AX371" s="1"/>
       <c r="AY371" s="1"/>
-    </row>
-    <row r="372" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ371" s="1"/>
+    </row>
+    <row r="372" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -22529,8 +22898,9 @@
       <c r="AW372" s="1"/>
       <c r="AX372" s="1"/>
       <c r="AY372" s="1"/>
-    </row>
-    <row r="373" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ372" s="1"/>
+    </row>
+    <row r="373" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -22582,8 +22952,9 @@
       <c r="AW373" s="1"/>
       <c r="AX373" s="1"/>
       <c r="AY373" s="1"/>
-    </row>
-    <row r="374" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ373" s="1"/>
+    </row>
+    <row r="374" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -22635,8 +23006,9 @@
       <c r="AW374" s="1"/>
       <c r="AX374" s="1"/>
       <c r="AY374" s="1"/>
-    </row>
-    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ374" s="1"/>
+    </row>
+    <row r="375" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -22688,8 +23060,9 @@
       <c r="AW375" s="1"/>
       <c r="AX375" s="1"/>
       <c r="AY375" s="1"/>
-    </row>
-    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ375" s="1"/>
+    </row>
+    <row r="376" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -22741,8 +23114,9 @@
       <c r="AW376" s="1"/>
       <c r="AX376" s="1"/>
       <c r="AY376" s="1"/>
-    </row>
-    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ376" s="1"/>
+    </row>
+    <row r="377" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -22794,8 +23168,9 @@
       <c r="AW377" s="1"/>
       <c r="AX377" s="1"/>
       <c r="AY377" s="1"/>
-    </row>
-    <row r="378" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ377" s="1"/>
+    </row>
+    <row r="378" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -22847,8 +23222,9 @@
       <c r="AW378" s="1"/>
       <c r="AX378" s="1"/>
       <c r="AY378" s="1"/>
-    </row>
-    <row r="379" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ378" s="1"/>
+    </row>
+    <row r="379" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -22900,8 +23276,9 @@
       <c r="AW379" s="1"/>
       <c r="AX379" s="1"/>
       <c r="AY379" s="1"/>
-    </row>
-    <row r="380" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ379" s="1"/>
+    </row>
+    <row r="380" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -22953,8 +23330,9 @@
       <c r="AW380" s="1"/>
       <c r="AX380" s="1"/>
       <c r="AY380" s="1"/>
-    </row>
-    <row r="381" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ380" s="1"/>
+    </row>
+    <row r="381" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -23006,8 +23384,9 @@
       <c r="AW381" s="1"/>
       <c r="AX381" s="1"/>
       <c r="AY381" s="1"/>
-    </row>
-    <row r="382" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ381" s="1"/>
+    </row>
+    <row r="382" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -23059,8 +23438,9 @@
       <c r="AW382" s="1"/>
       <c r="AX382" s="1"/>
       <c r="AY382" s="1"/>
-    </row>
-    <row r="383" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ382" s="1"/>
+    </row>
+    <row r="383" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -23112,8 +23492,9 @@
       <c r="AW383" s="1"/>
       <c r="AX383" s="1"/>
       <c r="AY383" s="1"/>
-    </row>
-    <row r="384" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ383" s="1"/>
+    </row>
+    <row r="384" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -23165,8 +23546,9 @@
       <c r="AW384" s="1"/>
       <c r="AX384" s="1"/>
       <c r="AY384" s="1"/>
-    </row>
-    <row r="385" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ384" s="1"/>
+    </row>
+    <row r="385" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -23218,8 +23600,9 @@
       <c r="AW385" s="1"/>
       <c r="AX385" s="1"/>
       <c r="AY385" s="1"/>
-    </row>
-    <row r="386" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ385" s="1"/>
+    </row>
+    <row r="386" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -23271,8 +23654,9 @@
       <c r="AW386" s="1"/>
       <c r="AX386" s="1"/>
       <c r="AY386" s="1"/>
-    </row>
-    <row r="387" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ386" s="1"/>
+    </row>
+    <row r="387" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -23324,8 +23708,9 @@
       <c r="AW387" s="1"/>
       <c r="AX387" s="1"/>
       <c r="AY387" s="1"/>
-    </row>
-    <row r="388" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ387" s="1"/>
+    </row>
+    <row r="388" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -23377,8 +23762,9 @@
       <c r="AW388" s="1"/>
       <c r="AX388" s="1"/>
       <c r="AY388" s="1"/>
-    </row>
-    <row r="389" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ388" s="1"/>
+    </row>
+    <row r="389" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -23430,8 +23816,9 @@
       <c r="AW389" s="1"/>
       <c r="AX389" s="1"/>
       <c r="AY389" s="1"/>
-    </row>
-    <row r="390" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ389" s="1"/>
+    </row>
+    <row r="390" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -23483,8 +23870,9 @@
       <c r="AW390" s="1"/>
       <c r="AX390" s="1"/>
       <c r="AY390" s="1"/>
-    </row>
-    <row r="391" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ390" s="1"/>
+    </row>
+    <row r="391" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -23536,8 +23924,9 @@
       <c r="AW391" s="1"/>
       <c r="AX391" s="1"/>
       <c r="AY391" s="1"/>
-    </row>
-    <row r="392" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ391" s="1"/>
+    </row>
+    <row r="392" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -23589,8 +23978,9 @@
       <c r="AW392" s="1"/>
       <c r="AX392" s="1"/>
       <c r="AY392" s="1"/>
-    </row>
-    <row r="393" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ392" s="1"/>
+    </row>
+    <row r="393" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -23642,8 +24032,9 @@
       <c r="AW393" s="1"/>
       <c r="AX393" s="1"/>
       <c r="AY393" s="1"/>
-    </row>
-    <row r="394" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ393" s="1"/>
+    </row>
+    <row r="394" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -23695,8 +24086,9 @@
       <c r="AW394" s="1"/>
       <c r="AX394" s="1"/>
       <c r="AY394" s="1"/>
-    </row>
-    <row r="395" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ394" s="1"/>
+    </row>
+    <row r="395" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -23748,8 +24140,9 @@
       <c r="AW395" s="1"/>
       <c r="AX395" s="1"/>
       <c r="AY395" s="1"/>
-    </row>
-    <row r="396" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ395" s="1"/>
+    </row>
+    <row r="396" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -23801,8 +24194,9 @@
       <c r="AW396" s="1"/>
       <c r="AX396" s="1"/>
       <c r="AY396" s="1"/>
-    </row>
-    <row r="397" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ396" s="1"/>
+    </row>
+    <row r="397" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -23854,8 +24248,9 @@
       <c r="AW397" s="1"/>
       <c r="AX397" s="1"/>
       <c r="AY397" s="1"/>
-    </row>
-    <row r="398" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ397" s="1"/>
+    </row>
+    <row r="398" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -23907,8 +24302,9 @@
       <c r="AW398" s="1"/>
       <c r="AX398" s="1"/>
       <c r="AY398" s="1"/>
-    </row>
-    <row r="399" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ398" s="1"/>
+    </row>
+    <row r="399" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -23960,8 +24356,9 @@
       <c r="AW399" s="1"/>
       <c r="AX399" s="1"/>
       <c r="AY399" s="1"/>
-    </row>
-    <row r="400" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ399" s="1"/>
+    </row>
+    <row r="400" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -24013,8 +24410,9 @@
       <c r="AW400" s="1"/>
       <c r="AX400" s="1"/>
       <c r="AY400" s="1"/>
-    </row>
-    <row r="401" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ400" s="1"/>
+    </row>
+    <row r="401" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -24066,8 +24464,9 @@
       <c r="AW401" s="1"/>
       <c r="AX401" s="1"/>
       <c r="AY401" s="1"/>
-    </row>
-    <row r="402" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ401" s="1"/>
+    </row>
+    <row r="402" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -24119,8 +24518,9 @@
       <c r="AW402" s="1"/>
       <c r="AX402" s="1"/>
       <c r="AY402" s="1"/>
-    </row>
-    <row r="403" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ402" s="1"/>
+    </row>
+    <row r="403" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -24172,8 +24572,9 @@
       <c r="AW403" s="1"/>
       <c r="AX403" s="1"/>
       <c r="AY403" s="1"/>
-    </row>
-    <row r="404" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ403" s="1"/>
+    </row>
+    <row r="404" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -24225,8 +24626,9 @@
       <c r="AW404" s="1"/>
       <c r="AX404" s="1"/>
       <c r="AY404" s="1"/>
-    </row>
-    <row r="405" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ404" s="1"/>
+    </row>
+    <row r="405" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -24278,8 +24680,9 @@
       <c r="AW405" s="1"/>
       <c r="AX405" s="1"/>
       <c r="AY405" s="1"/>
-    </row>
-    <row r="406" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ405" s="1"/>
+    </row>
+    <row r="406" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -24331,8 +24734,9 @@
       <c r="AW406" s="1"/>
       <c r="AX406" s="1"/>
       <c r="AY406" s="1"/>
-    </row>
-    <row r="407" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ406" s="1"/>
+    </row>
+    <row r="407" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -24384,8 +24788,9 @@
       <c r="AW407" s="1"/>
       <c r="AX407" s="1"/>
       <c r="AY407" s="1"/>
-    </row>
-    <row r="408" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ407" s="1"/>
+    </row>
+    <row r="408" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -24437,8 +24842,9 @@
       <c r="AW408" s="1"/>
       <c r="AX408" s="1"/>
       <c r="AY408" s="1"/>
-    </row>
-    <row r="409" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ408" s="1"/>
+    </row>
+    <row r="409" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -24490,8 +24896,9 @@
       <c r="AW409" s="1"/>
       <c r="AX409" s="1"/>
       <c r="AY409" s="1"/>
-    </row>
-    <row r="410" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ409" s="1"/>
+    </row>
+    <row r="410" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -24543,8 +24950,9 @@
       <c r="AW410" s="1"/>
       <c r="AX410" s="1"/>
       <c r="AY410" s="1"/>
-    </row>
-    <row r="411" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ410" s="1"/>
+    </row>
+    <row r="411" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -24596,8 +25004,9 @@
       <c r="AW411" s="1"/>
       <c r="AX411" s="1"/>
       <c r="AY411" s="1"/>
-    </row>
-    <row r="412" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ411" s="1"/>
+    </row>
+    <row r="412" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -24649,8 +25058,9 @@
       <c r="AW412" s="1"/>
       <c r="AX412" s="1"/>
       <c r="AY412" s="1"/>
-    </row>
-    <row r="413" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ412" s="1"/>
+    </row>
+    <row r="413" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -24702,8 +25112,9 @@
       <c r="AW413" s="1"/>
       <c r="AX413" s="1"/>
       <c r="AY413" s="1"/>
-    </row>
-    <row r="414" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ413" s="1"/>
+    </row>
+    <row r="414" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -24755,8 +25166,9 @@
       <c r="AW414" s="1"/>
       <c r="AX414" s="1"/>
       <c r="AY414" s="1"/>
-    </row>
-    <row r="415" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ414" s="1"/>
+    </row>
+    <row r="415" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -24808,8 +25220,9 @@
       <c r="AW415" s="1"/>
       <c r="AX415" s="1"/>
       <c r="AY415" s="1"/>
-    </row>
-    <row r="416" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ415" s="1"/>
+    </row>
+    <row r="416" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -24861,8 +25274,9 @@
       <c r="AW416" s="1"/>
       <c r="AX416" s="1"/>
       <c r="AY416" s="1"/>
-    </row>
-    <row r="417" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ416" s="1"/>
+    </row>
+    <row r="417" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -24914,8 +25328,9 @@
       <c r="AW417" s="1"/>
       <c r="AX417" s="1"/>
       <c r="AY417" s="1"/>
-    </row>
-    <row r="418" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ417" s="1"/>
+    </row>
+    <row r="418" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -24967,8 +25382,9 @@
       <c r="AW418" s="1"/>
       <c r="AX418" s="1"/>
       <c r="AY418" s="1"/>
-    </row>
-    <row r="419" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ418" s="1"/>
+    </row>
+    <row r="419" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -25020,8 +25436,9 @@
       <c r="AW419" s="1"/>
       <c r="AX419" s="1"/>
       <c r="AY419" s="1"/>
-    </row>
-    <row r="420" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ419" s="1"/>
+    </row>
+    <row r="420" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -25073,8 +25490,9 @@
       <c r="AW420" s="1"/>
       <c r="AX420" s="1"/>
       <c r="AY420" s="1"/>
-    </row>
-    <row r="421" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ420" s="1"/>
+    </row>
+    <row r="421" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -25126,8 +25544,9 @@
       <c r="AW421" s="1"/>
       <c r="AX421" s="1"/>
       <c r="AY421" s="1"/>
-    </row>
-    <row r="422" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ421" s="1"/>
+    </row>
+    <row r="422" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -25179,8 +25598,9 @@
       <c r="AW422" s="1"/>
       <c r="AX422" s="1"/>
       <c r="AY422" s="1"/>
-    </row>
-    <row r="423" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ422" s="1"/>
+    </row>
+    <row r="423" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -25232,8 +25652,9 @@
       <c r="AW423" s="1"/>
       <c r="AX423" s="1"/>
       <c r="AY423" s="1"/>
-    </row>
-    <row r="424" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ423" s="1"/>
+    </row>
+    <row r="424" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -25285,8 +25706,9 @@
       <c r="AW424" s="1"/>
       <c r="AX424" s="1"/>
       <c r="AY424" s="1"/>
-    </row>
-    <row r="425" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ424" s="1"/>
+    </row>
+    <row r="425" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -25338,8 +25760,9 @@
       <c r="AW425" s="1"/>
       <c r="AX425" s="1"/>
       <c r="AY425" s="1"/>
-    </row>
-    <row r="426" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ425" s="1"/>
+    </row>
+    <row r="426" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -25391,8 +25814,9 @@
       <c r="AW426" s="1"/>
       <c r="AX426" s="1"/>
       <c r="AY426" s="1"/>
-    </row>
-    <row r="427" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ426" s="1"/>
+    </row>
+    <row r="427" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -25444,8 +25868,9 @@
       <c r="AW427" s="1"/>
       <c r="AX427" s="1"/>
       <c r="AY427" s="1"/>
-    </row>
-    <row r="428" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ427" s="1"/>
+    </row>
+    <row r="428" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -25497,8 +25922,9 @@
       <c r="AW428" s="1"/>
       <c r="AX428" s="1"/>
       <c r="AY428" s="1"/>
-    </row>
-    <row r="429" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ428" s="1"/>
+    </row>
+    <row r="429" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -25550,8 +25976,9 @@
       <c r="AW429" s="1"/>
       <c r="AX429" s="1"/>
       <c r="AY429" s="1"/>
-    </row>
-    <row r="430" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ429" s="1"/>
+    </row>
+    <row r="430" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -25603,8 +26030,9 @@
       <c r="AW430" s="1"/>
       <c r="AX430" s="1"/>
       <c r="AY430" s="1"/>
-    </row>
-    <row r="431" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ430" s="1"/>
+    </row>
+    <row r="431" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -25656,8 +26084,9 @@
       <c r="AW431" s="1"/>
       <c r="AX431" s="1"/>
       <c r="AY431" s="1"/>
-    </row>
-    <row r="432" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ431" s="1"/>
+    </row>
+    <row r="432" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -25709,8 +26138,9 @@
       <c r="AW432" s="1"/>
       <c r="AX432" s="1"/>
       <c r="AY432" s="1"/>
-    </row>
-    <row r="433" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ432" s="1"/>
+    </row>
+    <row r="433" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -25762,8 +26192,9 @@
       <c r="AW433" s="1"/>
       <c r="AX433" s="1"/>
       <c r="AY433" s="1"/>
-    </row>
-    <row r="434" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ433" s="1"/>
+    </row>
+    <row r="434" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -25815,8 +26246,9 @@
       <c r="AW434" s="1"/>
       <c r="AX434" s="1"/>
       <c r="AY434" s="1"/>
-    </row>
-    <row r="435" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ434" s="1"/>
+    </row>
+    <row r="435" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -25868,8 +26300,9 @@
       <c r="AW435" s="1"/>
       <c r="AX435" s="1"/>
       <c r="AY435" s="1"/>
-    </row>
-    <row r="436" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ435" s="1"/>
+    </row>
+    <row r="436" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -25921,8 +26354,9 @@
       <c r="AW436" s="1"/>
       <c r="AX436" s="1"/>
       <c r="AY436" s="1"/>
-    </row>
-    <row r="437" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ436" s="1"/>
+    </row>
+    <row r="437" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -25974,8 +26408,9 @@
       <c r="AW437" s="1"/>
       <c r="AX437" s="1"/>
       <c r="AY437" s="1"/>
-    </row>
-    <row r="438" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ437" s="1"/>
+    </row>
+    <row r="438" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -26027,8 +26462,9 @@
       <c r="AW438" s="1"/>
       <c r="AX438" s="1"/>
       <c r="AY438" s="1"/>
-    </row>
-    <row r="439" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ438" s="1"/>
+    </row>
+    <row r="439" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -26080,8 +26516,9 @@
       <c r="AW439" s="1"/>
       <c r="AX439" s="1"/>
       <c r="AY439" s="1"/>
-    </row>
-    <row r="440" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ439" s="1"/>
+    </row>
+    <row r="440" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -26133,8 +26570,9 @@
       <c r="AW440" s="1"/>
       <c r="AX440" s="1"/>
       <c r="AY440" s="1"/>
-    </row>
-    <row r="441" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ440" s="1"/>
+    </row>
+    <row r="441" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -26186,8 +26624,9 @@
       <c r="AW441" s="1"/>
       <c r="AX441" s="1"/>
       <c r="AY441" s="1"/>
-    </row>
-    <row r="442" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ441" s="1"/>
+    </row>
+    <row r="442" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -26239,8 +26678,9 @@
       <c r="AW442" s="1"/>
       <c r="AX442" s="1"/>
       <c r="AY442" s="1"/>
-    </row>
-    <row r="443" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ442" s="1"/>
+    </row>
+    <row r="443" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -26292,8 +26732,9 @@
       <c r="AW443" s="1"/>
       <c r="AX443" s="1"/>
       <c r="AY443" s="1"/>
-    </row>
-    <row r="444" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ443" s="1"/>
+    </row>
+    <row r="444" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -26345,8 +26786,9 @@
       <c r="AW444" s="1"/>
       <c r="AX444" s="1"/>
       <c r="AY444" s="1"/>
-    </row>
-    <row r="445" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ444" s="1"/>
+    </row>
+    <row r="445" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -26398,8 +26840,9 @@
       <c r="AW445" s="1"/>
       <c r="AX445" s="1"/>
       <c r="AY445" s="1"/>
-    </row>
-    <row r="446" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ445" s="1"/>
+    </row>
+    <row r="446" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -26451,8 +26894,9 @@
       <c r="AW446" s="1"/>
       <c r="AX446" s="1"/>
       <c r="AY446" s="1"/>
-    </row>
-    <row r="447" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ446" s="1"/>
+    </row>
+    <row r="447" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -26504,8 +26948,9 @@
       <c r="AW447" s="1"/>
       <c r="AX447" s="1"/>
       <c r="AY447" s="1"/>
-    </row>
-    <row r="448" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ447" s="1"/>
+    </row>
+    <row r="448" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -26557,8 +27002,9 @@
       <c r="AW448" s="1"/>
       <c r="AX448" s="1"/>
       <c r="AY448" s="1"/>
-    </row>
-    <row r="449" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ448" s="1"/>
+    </row>
+    <row r="449" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -26610,8 +27056,9 @@
       <c r="AW449" s="1"/>
       <c r="AX449" s="1"/>
       <c r="AY449" s="1"/>
-    </row>
-    <row r="450" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ449" s="1"/>
+    </row>
+    <row r="450" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -26663,8 +27110,9 @@
       <c r="AW450" s="1"/>
       <c r="AX450" s="1"/>
       <c r="AY450" s="1"/>
-    </row>
-    <row r="451" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ450" s="1"/>
+    </row>
+    <row r="451" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -26716,8 +27164,9 @@
       <c r="AW451" s="1"/>
       <c r="AX451" s="1"/>
       <c r="AY451" s="1"/>
-    </row>
-    <row r="452" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ451" s="1"/>
+    </row>
+    <row r="452" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -26769,8 +27218,9 @@
       <c r="AW452" s="1"/>
       <c r="AX452" s="1"/>
       <c r="AY452" s="1"/>
-    </row>
-    <row r="453" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ452" s="1"/>
+    </row>
+    <row r="453" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -26822,8 +27272,9 @@
       <c r="AW453" s="1"/>
       <c r="AX453" s="1"/>
       <c r="AY453" s="1"/>
-    </row>
-    <row r="454" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ453" s="1"/>
+    </row>
+    <row r="454" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -26875,8 +27326,9 @@
       <c r="AW454" s="1"/>
       <c r="AX454" s="1"/>
       <c r="AY454" s="1"/>
-    </row>
-    <row r="455" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ454" s="1"/>
+    </row>
+    <row r="455" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -26928,8 +27380,9 @@
       <c r="AW455" s="1"/>
       <c r="AX455" s="1"/>
       <c r="AY455" s="1"/>
-    </row>
-    <row r="456" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ455" s="1"/>
+    </row>
+    <row r="456" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -26981,8 +27434,9 @@
       <c r="AW456" s="1"/>
       <c r="AX456" s="1"/>
       <c r="AY456" s="1"/>
-    </row>
-    <row r="457" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ456" s="1"/>
+    </row>
+    <row r="457" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -27034,8 +27488,9 @@
       <c r="AW457" s="1"/>
       <c r="AX457" s="1"/>
       <c r="AY457" s="1"/>
-    </row>
-    <row r="458" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ457" s="1"/>
+    </row>
+    <row r="458" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -27087,8 +27542,9 @@
       <c r="AW458" s="1"/>
       <c r="AX458" s="1"/>
       <c r="AY458" s="1"/>
-    </row>
-    <row r="459" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ458" s="1"/>
+    </row>
+    <row r="459" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -27140,8 +27596,9 @@
       <c r="AW459" s="1"/>
       <c r="AX459" s="1"/>
       <c r="AY459" s="1"/>
-    </row>
-    <row r="460" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ459" s="1"/>
+    </row>
+    <row r="460" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -27193,8 +27650,9 @@
       <c r="AW460" s="1"/>
       <c r="AX460" s="1"/>
       <c r="AY460" s="1"/>
-    </row>
-    <row r="461" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ460" s="1"/>
+    </row>
+    <row r="461" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -27246,8 +27704,9 @@
       <c r="AW461" s="1"/>
       <c r="AX461" s="1"/>
       <c r="AY461" s="1"/>
-    </row>
-    <row r="462" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ461" s="1"/>
+    </row>
+    <row r="462" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -27299,8 +27758,9 @@
       <c r="AW462" s="1"/>
       <c r="AX462" s="1"/>
       <c r="AY462" s="1"/>
-    </row>
-    <row r="463" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ462" s="1"/>
+    </row>
+    <row r="463" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -27352,8 +27812,9 @@
       <c r="AW463" s="1"/>
       <c r="AX463" s="1"/>
       <c r="AY463" s="1"/>
-    </row>
-    <row r="464" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ463" s="1"/>
+    </row>
+    <row r="464" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -27405,8 +27866,9 @@
       <c r="AW464" s="1"/>
       <c r="AX464" s="1"/>
       <c r="AY464" s="1"/>
-    </row>
-    <row r="465" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ464" s="1"/>
+    </row>
+    <row r="465" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -27458,8 +27920,9 @@
       <c r="AW465" s="1"/>
       <c r="AX465" s="1"/>
       <c r="AY465" s="1"/>
-    </row>
-    <row r="466" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ465" s="1"/>
+    </row>
+    <row r="466" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -27511,8 +27974,9 @@
       <c r="AW466" s="1"/>
       <c r="AX466" s="1"/>
       <c r="AY466" s="1"/>
-    </row>
-    <row r="467" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ466" s="1"/>
+    </row>
+    <row r="467" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -27564,8 +28028,9 @@
       <c r="AW467" s="1"/>
       <c r="AX467" s="1"/>
       <c r="AY467" s="1"/>
-    </row>
-    <row r="468" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ467" s="1"/>
+    </row>
+    <row r="468" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -27617,8 +28082,9 @@
       <c r="AW468" s="1"/>
       <c r="AX468" s="1"/>
       <c r="AY468" s="1"/>
-    </row>
-    <row r="469" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ468" s="1"/>
+    </row>
+    <row r="469" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -27670,8 +28136,9 @@
       <c r="AW469" s="1"/>
       <c r="AX469" s="1"/>
       <c r="AY469" s="1"/>
-    </row>
-    <row r="470" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ469" s="1"/>
+    </row>
+    <row r="470" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -27723,8 +28190,9 @@
       <c r="AW470" s="1"/>
       <c r="AX470" s="1"/>
       <c r="AY470" s="1"/>
-    </row>
-    <row r="471" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ470" s="1"/>
+    </row>
+    <row r="471" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -27776,8 +28244,9 @@
       <c r="AW471" s="1"/>
       <c r="AX471" s="1"/>
       <c r="AY471" s="1"/>
-    </row>
-    <row r="472" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ471" s="1"/>
+    </row>
+    <row r="472" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -27829,8 +28298,9 @@
       <c r="AW472" s="1"/>
       <c r="AX472" s="1"/>
       <c r="AY472" s="1"/>
-    </row>
-    <row r="473" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ472" s="1"/>
+    </row>
+    <row r="473" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -27882,8 +28352,9 @@
       <c r="AW473" s="1"/>
       <c r="AX473" s="1"/>
       <c r="AY473" s="1"/>
-    </row>
-    <row r="474" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ473" s="1"/>
+    </row>
+    <row r="474" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -27935,8 +28406,9 @@
       <c r="AW474" s="1"/>
       <c r="AX474" s="1"/>
       <c r="AY474" s="1"/>
-    </row>
-    <row r="475" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ474" s="1"/>
+    </row>
+    <row r="475" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -27988,8 +28460,9 @@
       <c r="AW475" s="1"/>
       <c r="AX475" s="1"/>
       <c r="AY475" s="1"/>
-    </row>
-    <row r="476" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ475" s="1"/>
+    </row>
+    <row r="476" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -28041,8 +28514,9 @@
       <c r="AW476" s="1"/>
       <c r="AX476" s="1"/>
       <c r="AY476" s="1"/>
-    </row>
-    <row r="477" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ476" s="1"/>
+    </row>
+    <row r="477" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -28094,8 +28568,9 @@
       <c r="AW477" s="1"/>
       <c r="AX477" s="1"/>
       <c r="AY477" s="1"/>
-    </row>
-    <row r="478" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ477" s="1"/>
+    </row>
+    <row r="478" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -28147,8 +28622,9 @@
       <c r="AW478" s="1"/>
       <c r="AX478" s="1"/>
       <c r="AY478" s="1"/>
-    </row>
-    <row r="479" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ478" s="1"/>
+    </row>
+    <row r="479" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -28200,8 +28676,9 @@
       <c r="AW479" s="1"/>
       <c r="AX479" s="1"/>
       <c r="AY479" s="1"/>
-    </row>
-    <row r="480" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ479" s="1"/>
+    </row>
+    <row r="480" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -28253,8 +28730,9 @@
       <c r="AW480" s="1"/>
       <c r="AX480" s="1"/>
       <c r="AY480" s="1"/>
-    </row>
-    <row r="481" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ480" s="1"/>
+    </row>
+    <row r="481" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -28306,8 +28784,9 @@
       <c r="AW481" s="1"/>
       <c r="AX481" s="1"/>
       <c r="AY481" s="1"/>
-    </row>
-    <row r="482" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ481" s="1"/>
+    </row>
+    <row r="482" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -28359,8 +28838,9 @@
       <c r="AW482" s="1"/>
       <c r="AX482" s="1"/>
       <c r="AY482" s="1"/>
-    </row>
-    <row r="483" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ482" s="1"/>
+    </row>
+    <row r="483" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -28412,8 +28892,9 @@
       <c r="AW483" s="1"/>
       <c r="AX483" s="1"/>
       <c r="AY483" s="1"/>
-    </row>
-    <row r="484" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ483" s="1"/>
+    </row>
+    <row r="484" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -28465,8 +28946,9 @@
       <c r="AW484" s="1"/>
       <c r="AX484" s="1"/>
       <c r="AY484" s="1"/>
-    </row>
-    <row r="485" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ484" s="1"/>
+    </row>
+    <row r="485" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -28518,8 +29000,9 @@
       <c r="AW485" s="1"/>
       <c r="AX485" s="1"/>
       <c r="AY485" s="1"/>
-    </row>
-    <row r="486" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ485" s="1"/>
+    </row>
+    <row r="486" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -28571,8 +29054,9 @@
       <c r="AW486" s="1"/>
       <c r="AX486" s="1"/>
       <c r="AY486" s="1"/>
-    </row>
-    <row r="487" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ486" s="1"/>
+    </row>
+    <row r="487" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -28624,8 +29108,9 @@
       <c r="AW487" s="1"/>
       <c r="AX487" s="1"/>
       <c r="AY487" s="1"/>
-    </row>
-    <row r="488" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ487" s="1"/>
+    </row>
+    <row r="488" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -28677,8 +29162,9 @@
       <c r="AW488" s="1"/>
       <c r="AX488" s="1"/>
       <c r="AY488" s="1"/>
-    </row>
-    <row r="489" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ488" s="1"/>
+    </row>
+    <row r="489" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -28730,8 +29216,9 @@
       <c r="AW489" s="1"/>
       <c r="AX489" s="1"/>
       <c r="AY489" s="1"/>
-    </row>
-    <row r="490" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ489" s="1"/>
+    </row>
+    <row r="490" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -28783,8 +29270,9 @@
       <c r="AW490" s="1"/>
       <c r="AX490" s="1"/>
       <c r="AY490" s="1"/>
-    </row>
-    <row r="491" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ490" s="1"/>
+    </row>
+    <row r="491" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -28836,8 +29324,9 @@
       <c r="AW491" s="1"/>
       <c r="AX491" s="1"/>
       <c r="AY491" s="1"/>
-    </row>
-    <row r="492" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ491" s="1"/>
+    </row>
+    <row r="492" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -28889,8 +29378,9 @@
       <c r="AW492" s="1"/>
       <c r="AX492" s="1"/>
       <c r="AY492" s="1"/>
-    </row>
-    <row r="493" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ492" s="1"/>
+    </row>
+    <row r="493" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -28942,8 +29432,9 @@
       <c r="AW493" s="1"/>
       <c r="AX493" s="1"/>
       <c r="AY493" s="1"/>
-    </row>
-    <row r="494" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ493" s="1"/>
+    </row>
+    <row r="494" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -28995,8 +29486,9 @@
       <c r="AW494" s="1"/>
       <c r="AX494" s="1"/>
       <c r="AY494" s="1"/>
-    </row>
-    <row r="495" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ494" s="1"/>
+    </row>
+    <row r="495" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -29048,8 +29540,9 @@
       <c r="AW495" s="1"/>
       <c r="AX495" s="1"/>
       <c r="AY495" s="1"/>
-    </row>
-    <row r="496" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ495" s="1"/>
+    </row>
+    <row r="496" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -29101,8 +29594,9 @@
       <c r="AW496" s="1"/>
       <c r="AX496" s="1"/>
       <c r="AY496" s="1"/>
-    </row>
-    <row r="497" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ496" s="1"/>
+    </row>
+    <row r="497" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -29154,8 +29648,9 @@
       <c r="AW497" s="1"/>
       <c r="AX497" s="1"/>
       <c r="AY497" s="1"/>
-    </row>
-    <row r="498" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ497" s="1"/>
+    </row>
+    <row r="498" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -29207,8 +29702,9 @@
       <c r="AW498" s="1"/>
       <c r="AX498" s="1"/>
       <c r="AY498" s="1"/>
-    </row>
-    <row r="499" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ498" s="1"/>
+    </row>
+    <row r="499" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -29260,8 +29756,9 @@
       <c r="AW499" s="1"/>
       <c r="AX499" s="1"/>
       <c r="AY499" s="1"/>
-    </row>
-    <row r="500" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ499" s="1"/>
+    </row>
+    <row r="500" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -29313,9 +29810,10 @@
       <c r="AW500" s="1"/>
       <c r="AX500" s="1"/>
       <c r="AY500" s="1"/>
+      <c r="AZ500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AF42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AG42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
